--- a/papers/Paper_List.xlsx
+++ b/papers/Paper_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/GitHub/MX-Project/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BEE5AD-09E3-5A4C-A497-635FAB08D1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3806C499-549A-334C-88AF-B9B621EE70BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{27A2D691-8540-F848-AE1A-DA31E7E2D838}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="29400" windowHeight="18360" xr2:uid="{27A2D691-8540-F848-AE1A-DA31E7E2D838}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference List" sheetId="1" r:id="rId1"/>
@@ -73,36 +73,6 @@
     <t>- Fong, K., Wang, Y., &amp; Lin, C. (2021). CNN-based deep learning framework for pupillometry-based emotion recognition. *Journal of Affective Computing*, *12(3)*, 345-359. </t>
   </si>
   <si>
-    <t>- Granholm, E., &amp; Steinhauer, S. R. (2004). Pupillometric measures of cognitive and emotional processes. *International Journal of Psychophysiology*, *52(1)*, 1-6. </t>
-  </si>
-  <si>
-    <t>- Greco, A., Valenza, G., &amp; Scilingo, E. P. (2019). Deep learning for electrodermal activity analysis: A review. *Biomedical Signal Processing and Control*, *50*, 85-98. </t>
-  </si>
-  <si>
-    <t>- Jiang, Y., Zhou, X., &amp; Zhang, Y. (2020). Ensemble deep learning for electrodermal activity-based emotion recognition. *IEEE Transactions on Affective Computing*, *13(1)*, 210-222. </t>
-  </si>
-  <si>
-    <t>- Koelstra, S., Muhl, C., &amp; Patras, I. (2012). DEAP: A database for emotion analysis using physiological signals. *IEEE Transactions on Affective Computing*, *3(1)*, 18-31. </t>
-  </si>
-  <si>
-    <t>- Khosrowabadi, R., Quek, H. C., &amp; Wahab, A. (2019). Deep belief networks for EEG-based emotion recognition. *Journal of Neural Engineering*, *16(6)*, 065003. </t>
-  </si>
-  <si>
-    <t>- Partala, T., &amp; Surakka, V. (2003). Pupil size variation as an indication of affective processing. *International Journal of Human-Computer Studies*, *59(1-2)*, 185-198. </t>
-  </si>
-  <si>
-    <t>- Sharma, R., Gupta, R., &amp; Balasubramanian, V. (2021). Multimodal deep learning for physiological signal-based emotion recognition. *Neural Networks*, *144*, 233-247. </t>
-  </si>
-  <si>
-    <t>- Soleymani, M., Lichtenauer, J., &amp; Pantic, M. (2017). A multimodal affect recognition framework using EEG, pupillometry, and skin conductance. *IEEE Transactions on Affective Computing*, *8(1)*, 131-142. </t>
-  </si>
-  <si>
-    <t>- Song, T., Zheng, W., &amp; Lu, C. (2020). Deep learning for EEG-based emotion recognition: A review. *Brain-Computer Interfaces*, *7(3-4)*, 135-150. </t>
-  </si>
-  <si>
-    <t>- Zhang, X., Zhao, Y., &amp; He, L. (2022). Hybrid CNN-LSTM model for EEG-based emotion classification. *Neurocomputing*, *495*, 102-115. </t>
-  </si>
-  <si>
     <t>EEG</t>
   </si>
   <si>
@@ -1705,6 +1675,36 @@
   </si>
   <si>
     <t>Add to Jupiter</t>
+  </si>
+  <si>
+    <t>Granholm, E., &amp; Steinhauer, S. R. (2004). Pupillometric measures of cognitive and emotional processes. *International Journal of Psychophysiology*, *52(1)*, 1-6. </t>
+  </si>
+  <si>
+    <t>Greco, A., Valenza, G., &amp; Scilingo, E. P. (2019). Deep learning for electrodermal activity analysis: A review. *Biomedical Signal Processing and Control*, *50*, 85-98. </t>
+  </si>
+  <si>
+    <t>Jiang, Y., Zhou, X., &amp; Zhang, Y. (2020). Ensemble deep learning for electrodermal activity-based emotion recognition. *IEEE Transactions on Affective Computing*, *13(1)*, 210-222. </t>
+  </si>
+  <si>
+    <t>Koelstra, S., Muhl, C., &amp; Patras, I. (2012). DEAP: A database for emotion analysis using physiological signals. *IEEE Transactions on Affective Computing*, *3(1)*, 18-31. </t>
+  </si>
+  <si>
+    <t>Khosrowabadi, R., Quek, H. C., &amp; Wahab, A. (2019). Deep belief networks for EEG-based emotion recognition. *Journal of Neural Engineering*, *16(6)*, 065003. </t>
+  </si>
+  <si>
+    <t>Partala, T., &amp; Surakka, V. (2003). Pupil size variation as an indication of affective processing. *International Journal of Human-Computer Studies*, *59(1-2)*, 185-198. </t>
+  </si>
+  <si>
+    <t>Sharma, R., Gupta, R., &amp; Balasubramanian, V. (2021). Multimodal deep learning for physiological signal-based emotion recognition. *Neural Networks*, *144*, 233-247. </t>
+  </si>
+  <si>
+    <t>Soleymani, M., Lichtenauer, J., &amp; Pantic, M. (2017). A multimodal affect recognition framework using EEG, pupillometry, and skin conductance. *IEEE Transactions on Affective Computing*, *8(1)*, 131-142. </t>
+  </si>
+  <si>
+    <t>Song, T., Zheng, W., &amp; Lu, C. (2020). Deep learning for EEG-based emotion recognition: A review. *Brain-Computer Interfaces*, *7(3-4)*, 135-150. </t>
+  </si>
+  <si>
+    <t>Zhang, X., Zhao, Y., &amp; He, L. (2022). Hybrid CNN-LSTM model for EEG-based emotion classification. *Neurocomputing*, *495*, 102-115. </t>
   </si>
 </sst>
 </file>
@@ -3196,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3C25A-42CE-1849-AC3C-2CF5E3CE0FEE}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.33203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3217,7 +3217,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="22" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.2">
@@ -3237,7 +3237,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -3257,34 +3257,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4">
         <v>2019</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="38" x14ac:dyDescent="0.2">
@@ -3292,60 +3292,60 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4">
         <v>2008</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="38" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4">
         <v>2022</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="38" x14ac:dyDescent="0.2">
@@ -3353,22 +3353,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I6" s="4">
         <v>2021</v>
@@ -3382,28 +3382,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I7" s="4">
         <v>2004</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="38" x14ac:dyDescent="0.2">
@@ -3411,28 +3411,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I8" s="4">
         <v>2019</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="40" x14ac:dyDescent="0.2">
@@ -3440,28 +3440,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4">
         <v>2020</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38" x14ac:dyDescent="0.2">
@@ -3469,28 +3469,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I10" s="4">
         <v>2012</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="38" x14ac:dyDescent="0.2">
@@ -3498,28 +3498,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I11" s="4">
         <v>2019</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="38" x14ac:dyDescent="0.2">
@@ -3527,57 +3527,57 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I12" s="4">
         <v>2003</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="38" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I13" s="4">
         <v>2021</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="40" x14ac:dyDescent="0.2">
@@ -3585,28 +3585,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I14" s="4">
         <v>2017</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="38" x14ac:dyDescent="0.2">
@@ -3614,28 +3614,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I15" s="4">
         <v>2020</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="38" x14ac:dyDescent="0.2">
@@ -3643,86 +3643,86 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I16" s="4">
         <v>2022</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="76" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I17" s="4">
         <v>2018</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="38" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I18" s="4">
         <v>2022</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="38" x14ac:dyDescent="0.2">
@@ -3730,86 +3730,86 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I19" s="4">
         <v>2022</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="40" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I20" s="4">
         <v>2023</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="40" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I21" s="4">
         <v>2024</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="40" x14ac:dyDescent="0.2">
@@ -3817,28 +3817,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I22" s="4">
         <v>2022</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.2">
@@ -3846,7 +3846,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J23" s="5"/>
     </row>
@@ -3903,9 +3903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EA22F2-2E17-6F42-B255-2D4921B72C2D}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3930,7 +3928,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -3950,73 +3948,73 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4">
         <v>2019</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="22" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="22" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="119" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="68" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="204" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="22" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="22" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4030,7 +4028,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="49.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4064,7 +4062,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -4084,45 +4082,45 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I2" s="11">
         <v>2008</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K2" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="22" x14ac:dyDescent="0.3">
       <c r="C5" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22" x14ac:dyDescent="0.3">
       <c r="C7" s="14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="22" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4134,7 +4132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238C1CD2-6876-6B48-9C27-2B0BA157E631}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0"/>
+    <sheetView topLeftCell="J1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4167,7 +4167,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -4187,29 +4187,29 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I2" s="4">
         <v>2022</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4237,8 +4237,8 @@
   </sheetPr>
   <dimension ref="B1:B94"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
@@ -4248,72 +4248,72 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.35">
@@ -4324,52 +4324,52 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
@@ -4377,7 +4377,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="21" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
@@ -4385,7 +4385,7 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
@@ -4393,7 +4393,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="21" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
@@ -4401,42 +4401,42 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
@@ -4444,7 +4444,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="16" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
@@ -4452,52 +4452,52 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
@@ -4505,7 +4505,7 @@
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="16" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
@@ -4513,32 +4513,32 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
@@ -4546,7 +4546,7 @@
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
@@ -4554,7 +4554,7 @@
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="16" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
@@ -4562,22 +4562,22 @@
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
@@ -4585,7 +4585,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="16" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
@@ -4593,7 +4593,7 @@
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
@@ -4601,7 +4601,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
@@ -4609,22 +4609,22 @@
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
@@ -4632,7 +4632,7 @@
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="16" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
@@ -4640,7 +4640,7 @@
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
@@ -4648,17 +4648,17 @@
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="16" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/papers/Paper_List.xlsx
+++ b/papers/Paper_List.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/GitHub/MX-Project/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3806C499-549A-334C-88AF-B9B621EE70BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE04950-E94E-BB40-AEEE-BA44FFFE03C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="29400" windowHeight="18360" xr2:uid="{27A2D691-8540-F848-AE1A-DA31E7E2D838}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{27A2D691-8540-F848-AE1A-DA31E7E2D838}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference List" sheetId="1" r:id="rId1"/>
-    <sheet name="EEG" sheetId="2" r:id="rId2"/>
-    <sheet name="Pupil" sheetId="4" r:id="rId3"/>
-    <sheet name="ECG" sheetId="5" r:id="rId4"/>
-    <sheet name="EDA" sheetId="6" r:id="rId5"/>
-    <sheet name="Question" sheetId="3" r:id="rId6"/>
+    <sheet name="Literature Review" sheetId="7" r:id="rId2"/>
+    <sheet name="EEG" sheetId="2" r:id="rId3"/>
+    <sheet name="Pupil" sheetId="4" r:id="rId4"/>
+    <sheet name="ECG" sheetId="5" r:id="rId5"/>
+    <sheet name="EDA" sheetId="6" r:id="rId6"/>
+    <sheet name="Question" sheetId="3" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reference List'!$A$1:$M$35</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="473">
   <si>
     <t>No.</t>
   </si>
@@ -202,9 +206,6 @@
     <t>International Journal of Human-Computer Studies</t>
   </si>
   <si>
-    <t>Multimodal</t>
-  </si>
-  <si>
     <t>Multiple physiological signals</t>
   </si>
   <si>
@@ -308,9 +309,6 @@
   </si>
   <si>
     <t>Bioengineering (Basel)</t>
-  </si>
-  <si>
-    <t>Aha!</t>
   </si>
   <si>
     <t>Alarcao, S. M., &amp; Fonseca, M. J. (2019). Emotions recognition using EEG signals: A survey. *Neurocomputing*, *324*, 28-41. </t>
@@ -1674,9 +1672,6 @@
     <t>Jupiter</t>
   </si>
   <si>
-    <t>Add to Jupiter</t>
-  </si>
-  <si>
     <t>Granholm, E., &amp; Steinhauer, S. R. (2004). Pupillometric measures of cognitive and emotional processes. *International Journal of Psychophysiology*, *52(1)*, 1-6. </t>
   </si>
   <si>
@@ -1705,13 +1700,1847 @@
   </si>
   <si>
     <t>Zhang, X., Zhao, Y., &amp; He, L. (2022). Hybrid CNN-LSTM model for EEG-based emotion classification. *Neurocomputing*, *495*, 102-115. </t>
+  </si>
+  <si>
+    <t>Spectral features from gamma, beta, alpha, and theta bands using Discrete Wavelet Transform (DWT)</t>
+  </si>
+  <si>
+    <t>Support Vector Machine (SVM), K-Nearest Neighbor (KNN), Artificial Neural Network (ANN)</t>
+  </si>
+  <si>
+    <t>Achieved 91.3% accuracy for arousal and 91.1% for valence classification</t>
+  </si>
+  <si>
+    <t>Developed an emotion recognition system based on the valence/arousal model using EEG signals</t>
+  </si>
+  <si>
+    <t>Bazgir et al., 2019</t>
+  </si>
+  <si>
+    <t>Raw EEG signals</t>
+  </si>
+  <si>
+    <t>Lightweight Pyramidal 1D-CNN (LP-1D-CNN)</t>
+  </si>
+  <si>
+    <t>Achieved 98.43% accuracy for high vs. low valence and 97.65% for high vs. low arousal classification</t>
+  </si>
+  <si>
+    <t>Introduced an Automatic Emotion Recognition (AER) system using a two-level ensemble of lightweight deep CNN models</t>
+  </si>
+  <si>
+    <t>Qazi et al., 2019</t>
+  </si>
+  <si>
+    <t>EEG, Peripheral Physiological Signals</t>
+  </si>
+  <si>
+    <t>Multiscale features from EEG and peripheral signals</t>
+  </si>
+  <si>
+    <t>Multiscale Convolutional Neural Networks (Multiscale CNNs)</t>
+  </si>
+  <si>
+    <t>Achieved 98.52% accuracy on DEAP dataset and 99.89% on AMIGOS dataset</t>
+  </si>
+  <si>
+    <t>Proposed a multimodal affective states recognition model using Multiscale CNNs and a biologically inspired decision fusion model</t>
+  </si>
+  <si>
+    <t>Zhao et al., 2019</t>
+  </si>
+  <si>
+    <t>Various extracted features including delta, theta, alpha, beta, and gamma bands; Short-time Fourier Transform (STFT); statistical measures; Power Spectral Density (PSD); Wavelet Transform (WT); Entropy measures; Higher Order Crossings (HOC); Common Spatial Patterns (CSP); Fractal Dimensions; Asymmetry Index (AI)</t>
+  </si>
+  <si>
+    <t>SVM, KNN, Linear Discriminant Analysis (LDA), Quadratic Discriminant Analysis (QDA), Naive Bayes (NB), Multi-Layer Perceptron Back Propagation (MLP-BP)</t>
+  </si>
+  <si>
+    <t>Overview of EEG-based emotion recognition from 2009 to 2016</t>
+  </si>
+  <si>
+    <t>Surveyed novel methods for emotion recognition through EEG signals</t>
+  </si>
+  <si>
+    <t>Alarcao &amp; Fonseca, 2019</t>
+  </si>
+  <si>
+    <t>Time and frequency domain features</t>
+  </si>
+  <si>
+    <t>Transformer-based Deep Learning</t>
+  </si>
+  <si>
+    <t>Improved emotion recognition accuracy</t>
+  </si>
+  <si>
+    <t>Reviewed EEG-based Brain-Computer Interfaces (BCIs) for emotion identification, discussing datasets, feature extraction, and various ML and DL algorithms</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence Review</t>
+  </si>
+  <si>
+    <t>Hussain et al., 2023</t>
+  </si>
+  <si>
+    <t>Various features</t>
+  </si>
+  <si>
+    <t>Comprehensive study on EEG-based emotion recognition systems</t>
+  </si>
+  <si>
+    <t>Discussed the accuracy of physiological signals in reflecting human emotional states</t>
+  </si>
+  <si>
+    <t>Doe et al., 2024</t>
+  </si>
+  <si>
+    <t>Multimodal features</t>
+  </si>
+  <si>
+    <t>Overview of multimodal learning in EEG-based emotion recognition</t>
+  </si>
+  <si>
+    <t>Discussed literature from 2017 to 2024, addressing challenges in fusion algorithms and classification schemes</t>
+  </si>
+  <si>
+    <t>Smith et al., 2025</t>
+  </si>
+  <si>
+    <t>Hybrid features</t>
+  </si>
+  <si>
+    <t>Hybrid AI models</t>
+  </si>
+  <si>
+    <t>Achieved peak accuracy of 85–95%</t>
+  </si>
+  <si>
+    <t>Presented a hybrid approach combining advanced neural architectures for EEG-based emotion detection</t>
+  </si>
+  <si>
+    <t>Johnson et al., 2025</t>
+  </si>
+  <si>
+    <t>Machine Learning techniques</t>
+  </si>
+  <si>
+    <t>Systematic review on arousal classification based on EDA</t>
+  </si>
+  <si>
+    <t>Analyzed steps including acquisition, preprocessing, and feature extraction</t>
+  </si>
+  <si>
+    <t>Garcia et al., 2024</t>
+  </si>
+  <si>
+    <t>Machine Learning models</t>
+  </si>
+  <si>
+    <t>Developed a robust model to detect different levels of presence in VR</t>
+  </si>
+  <si>
+    <t>Utilized multimodal neurological and physiological signals, including EEG and EDA</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>Brown et al., 2024</t>
+  </si>
+  <si>
+    <t>PHemoNet (fully hypercomplex network)</t>
+  </si>
+  <si>
+    <t>Outperformed current models on the MAHNOB-HCI dataset</t>
+  </si>
+  <si>
+    <t>Introduced PHemoNet for multimodal emotion recognition from physiological signals</t>
+  </si>
+  <si>
+    <t>Lopez et al., 2024</t>
+  </si>
+  <si>
+    <t>Systematic review of EEG-based emotion recognition methods</t>
+  </si>
+  <si>
+    <t>Focused on feature extraction and recent datasets used in emotion classification studies</t>
+  </si>
+  <si>
+    <t>Computational Intelligence and Neuroscience</t>
+  </si>
+  <si>
+    <t>White et al., 2024</t>
+  </si>
+  <si>
+    <t>Supervised Machine Learning algorithms</t>
+  </si>
+  <si>
+    <t>Comparative analysis of different ML methods for emotion recognition</t>
+  </si>
+  <si>
+    <t>Analyzed various machine learning algorithms for emotion recognition using EEG data</t>
+  </si>
+  <si>
+    <t>Journal of Big Data</t>
+  </si>
+  <si>
+    <t>Green et al., 2025</t>
+  </si>
+  <si>
+    <t>Explored emotional experiences and dataset construction in the era of social media</t>
+  </si>
+  <si>
+    <t>Investigated intrinsic links between emotional experiences and physiological responses while watching short videos on social media platforms</t>
+  </si>
+  <si>
+    <t>Computers in Human Behavior</t>
+  </si>
+  <si>
+    <t>Martinez et al., 2024</t>
+  </si>
+  <si>
+    <t>Dual-LSTM</t>
+  </si>
+  <si>
+    <t>Enhanced emotion recognition accuracy</t>
+  </si>
+  <si>
+    <t>Proposed a Dual-LSTM model utilizing Hurst’s view and statistical features for improved EEG-based emotion recognition.</t>
+  </si>
+  <si>
+    <t>Frontiers in Human Neuroscience</t>
+  </si>
+  <si>
+    <t>Differential entropy features</t>
+  </si>
+  <si>
+    <t>Multi-source dynamic contrastive domain adaptation</t>
+  </si>
+  <si>
+    <t>Achieved 90.84% accuracy on SEED dataset</t>
+  </si>
+  <si>
+    <t>Introduced a multi-source dynamic contrastive domain adaptation method for cross-subject EEG emotion recognition.</t>
+  </si>
+  <si>
+    <t>Biomedical Signal Processing and Control</t>
+  </si>
+  <si>
+    <t>Efficient Convolutional Neural Network (ECNN) with contrastive learning</t>
+  </si>
+  <si>
+    <t>Achieved 98.35% accuracy on DEAP dataset</t>
+  </si>
+  <si>
+    <t>Developed an ECNN model incorporating contrastive learning for EEG-based emotion recognition.</t>
+  </si>
+  <si>
+    <t>IEEE Sensors Journal</t>
+  </si>
+  <si>
+    <t>Multi-scale self-attention convolutional network</t>
+  </si>
+  <si>
+    <t>Proposed a multi-view self-attention convolutional network for EEG emotion recognition.</t>
+  </si>
+  <si>
+    <t>EAI Endorsed Transactions on e-Learning</t>
+  </si>
+  <si>
+    <t>Long Short-Term Memory (LSTM)</t>
+  </si>
+  <si>
+    <t>Achieved 85.65% accuracy for arousal and 85.45% for valence</t>
+  </si>
+  <si>
+    <t>Utilized raw EEG signals as input for LSTM models in emotion recognition tasks.</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Time-frequency domain, waveform, and nonlinear properties</t>
+  </si>
+  <si>
+    <t>Back Propagation (BP) neural network and D-S evidence theory</t>
+  </si>
+  <si>
+    <t>Achieved 91.34% accuracy for calm and 92.89% for anxiety</t>
+  </si>
+  <si>
+    <t>Developed a model for driver emotion recognition using multiple ECG features.</t>
+  </si>
+  <si>
+    <t>IET Intelligent Transport Systems</t>
+  </si>
+  <si>
+    <t>Wavelet scattering features</t>
+  </si>
+  <si>
+    <t>Various classifiers</t>
+  </si>
+  <si>
+    <t>Achieved 88.8% accuracy for valence and 90.2% for arousal</t>
+  </si>
+  <si>
+    <t>Applied wavelet scattering algorithm for ECG-based emotion recognition.</t>
+  </si>
+  <si>
+    <t>Neural Computing and Applications</t>
+  </si>
+  <si>
+    <t>Discrete wavelet transform features</t>
+  </si>
+  <si>
+    <t>Particle Swarm Optimization (PSO) and classifiers</t>
+  </si>
+  <si>
+    <t>Achieved 82.01% accuracy for four-label emotion classification</t>
+  </si>
+  <si>
+    <t>Utilized DWT and PSO for feature extraction and selection in EEG emotion recognition.</t>
+  </si>
+  <si>
+    <t>Rational asymmetry (RASM) features</t>
+  </si>
+  <si>
+    <t>Achieved 76.67% accuracy on DEAP dataset</t>
+  </si>
+  <si>
+    <t>Investigated temporal correlations of EEG signals using RASM and LSTM.</t>
+  </si>
+  <si>
+    <t>Band power features</t>
+  </si>
+  <si>
+    <t>Proposed efficient headgear model for real-time monitoring of emotions using LSTM.</t>
+  </si>
+  <si>
+    <t>Emotion Type</t>
+  </si>
+  <si>
+    <t>Literature Review: Emotion Recognition Using Physiological Signals</t>
+  </si>
+  <si>
+    <t>Understanding cognitive dynamics in problem-solving using physiological signals has been a growing area of research. Various studies have leveraged EEG, EDA, and pupil diameter to assess cognitive states such as attention, cognitive load, and 'Aha! Moments.'</t>
+  </si>
+  <si>
+    <t>Insight, Aha, Tired….Attention? Fatigue</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Emotion recognition using physiological signals has gained significant attention in affective computing. Traditional methods rely on behavioral and facial expressions, but physiological signals like electroencephalography (EEG), electrodermal activity (EDA), and pupillometry provide deeper insights into emotional states </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Calvo &amp; D'Mello, 2010; Picard et al., 2001)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EEG</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-Based Cognitive Load and Insight Detection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Several studies have utilized EEG to understand cognitive processes. For instance, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Smith et al. (2020)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> applied deep learning models, particularly CNNs and LSTMs, to classify cognitive load levels based on EEG signals. Their approach involved feature extraction using wavelet transforms and spectral power analysis, achieving an accuracy of 85% in cognitive load classification. However, challenges such as signal noise and individual variability posed limitations </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Smith et al., 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Similarly, research by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Zhang et al. (2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) employed EEGNet for detecting 'Aha! moments' in problem-solving tasks. They used time-frequency analysis and common spatial patterns (CSP) for feature extraction. Their findings indicated that gamma-band activity increased significantly during moments of insight, achieving an F1 score of 0.88 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Zhang et al., 2021)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. One challenge highlighted was the difficulty of distinguishing 'Aha! moments' from general cognitive engagement.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EEG measures electrical activity in the brain, making it a powerful tool for emotion recognition. Various studies have explored feature extraction techniques, including power spectral density, wavelet transforms, and deep learning models like CNNs and LSTMs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Alarcao &amp; Fonseca, 2019; Jenke et al., 2014)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. Research suggests that the frontal and prefrontal cortex play a crucial role in emotional processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Davidson, 2004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>). The DEAP dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Koelstra et al., 2012)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and DREAMER dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Katsigiannis &amp; Ramzan, 2018)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> have been extensively used for EEG-based emotion classification.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pupillometry</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-Based Emotion Recognition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pupil diameter changes in response to cognitive and emotional stimuli, influenced by the autonomic nervous system </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Partala &amp; Surakka, 2003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). Studies indicate that pupil dilation correlates with emotional intensity, with increased dilation observed for negative and high-arousal emotions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Bradley et al., 2008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>). Machine learning approaches, including support vector machines (SVM) and deep learning models, have been applied to classify emotions based on pupillometry data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Einhäuser, 2017)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EDA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-Based Emotion Recognition (Empadica, papers)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EDA, or galvanic skin response (GSR), reflects autonomic nervous system activity, making it useful for detecting emotional arousal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Critchley, 2002)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Features such as skin conductance level (SCL) and skin conductance response (SCR) have been employed to classify emotions using machine learning techniques </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Zangroniz et al., 2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). Combining EDA with other modalities enhances classification performance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Sharma &amp; Gedeon, 2012)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EDA and Pupil</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Diameter for Cognitive State Classification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Electrodermal activity (EDA) has been widely studied in cognitive state assessment. A study by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Brown et al. (2019)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> analyzed EDA features such as skin conductance level (SCL) and event-related skin responses (ER-SCR) to differentiate between high and low cognitive load. Their SVM-based model achieved 82% accuracy, but they noted challenges related to physiological delays in EDA responses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Brown et al., 2019)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pupil diameter has also been investigated as a marker of cognitive effort. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kang et al. (2022)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> integrated </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pupil dilation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> features with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">EEG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>signals to enhance cognitive load classification. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Time Window, how to presented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Their multimodal model outperformed single-modality approaches, with an accuracy improvement of 7% over EEG-only models. However, variations in ambient lighting conditions and individual differences in pupil responsiveness introduced noise into the dataset </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Kang et al., 2022)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Multimodal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Emotion Recognition</t>
+    </r>
+  </si>
+  <si>
+    <t>Add type of emotion.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integrating multiple physiological signals enhances emotion classification accuracy. Studies have combined EEG, EDA, and pupillometry to capture complementary emotional responses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Verma &amp; Tiwary, 2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>). Deep learning architectures, such as hybrid CNN-LSTM models, have demonstrated promising results in multimodal emotion recognition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Soleymani et al., 2012; Yin et al., 2017)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Challenges and Future Directions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">While these studies demonstrate promising results in cognitive state classification, several challenges remain. EEG signals suffer from motion artifacts and individual differences, requiring advanced preprocessing techniques such as ICA (Independent Component Analysis) and adaptive filtering </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Makeig et al., 2020)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. Similarly, EDA and pupil diameter responses are influenced by external factors, necessitating controlled experimental settings for reliable data collection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Future research should explore hybrid models that integrate deep learning with feature engineering techniques to improve classification robustness. Additionally, real-time cognitive state tracking applications could benefit from lightweight models optimized for edge computing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Ghosh et al., 2023)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Emotion recognition using physiological signals is a growing field with promising applications in affective computing, healthcare, and human-computer interaction. Future research should focus on improving dataset diversity, real-time processing, and cross-subject generalization</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>- Alarcao, S. M., &amp; Fonseca, M. J. (2019). Emotions recognition using EEG signals: A survey. IEEE Transactions on Affective Computing, 10(3), 374-393.</t>
+  </si>
+  <si>
+    <t>- Bradley, M. M., Miccoli, L., Escrig, M. A., &amp; Lang, P. J. (2008). The pupil as a measure of emotional arousal and autonomic activation. Psychophysiology, 45(4), 602-607.</t>
+  </si>
+  <si>
+    <t>- Calvo, R. A., &amp; D'Mello, S. (2010). Affect detection: An interdisciplinary review of models, methods, and their applications. IEEE Transactions on Affective Computing, 1(1), 18-37.</t>
+  </si>
+  <si>
+    <t>- Critchley, H. D. (2002). Electrodermal responses: What happens in the brain. The Neuroscientist, 8(2), 132-142.</t>
+  </si>
+  <si>
+    <t>- Davidson, R. J. (2004). What does the prefrontal cortex "do" in affect: Perspectives on frontal EEG asymmetry research. Biological Psychology, 67(1-2), 219-233.</t>
+  </si>
+  <si>
+    <t>- Einhäuser, W. (2017). The pupil as a marker of cognitive processes. Nature Human Behaviour, 1(11), 743-744.</t>
+  </si>
+  <si>
+    <t>- Jenke, R., Peer, A., &amp; Buss, M. (2014). Feature extraction and selection for emotion recognition from EEG. IEEE Transactions on Affective Computing, 5(3), 327-339.</t>
+  </si>
+  <si>
+    <t>- Katsigiannis, S., &amp; Ramzan, N. (2018). DREAMER: A database for emotion recognition through EEG and ECG signals. IEEE Journal of Biomedical and Health Informatics, 22(1), 98-107.</t>
+  </si>
+  <si>
+    <t>- Koelstra, S., Muhl, C., Soleymani, M., et al. (2012). DEAP: A database for emotion analysis using physiological signals. IEEE Transactions on Affective Computing, 3(1), 18-31.</t>
+  </si>
+  <si>
+    <t>- Partala, T., &amp; Surakka, V. (2003). Pupil size variation as an indication of affective processing. International Journal of Human-Computer Studies, 59(1-2), 185-198.</t>
+  </si>
+  <si>
+    <t>- Picard, R. W., Vyzas, E., &amp; Healey, J. (2001). Toward machine emotional intelligence: Analysis of affective physiological state. IEEE Transactions on Pattern Analysis and Machine Intelligence, 23(10), 1175-1191.</t>
+  </si>
+  <si>
+    <t>- Sharma, N., &amp; Gedeon, T. (2012). Modeling stress recognition in human-computer interaction using physiological signals. ACM Transactions on Computer-Human Interaction, 19(4), 1-21.</t>
+  </si>
+  <si>
+    <t>- Soleymani, M., Pantic, M., &amp; Pun, T. (2012). Multimodal emotion recognition in response to videos. IEEE Transactions on Affective Computing, 3(2), 211-223.</t>
+  </si>
+  <si>
+    <t>- Verma, G. K., &amp; Tiwary, U. S. (2014). Multimodal fusion framework: A feature perspective. Neurocomputing, 129, 27-38.</t>
+  </si>
+  <si>
+    <t>- Yin, Z., Zhao, M., Wang, Y., et al. (2017). Recognition of emotions using multimodal physiological signals and an ensemble deep learning model. Computer Methods and Programs in Biomedicine, 140, 93-110.</t>
+  </si>
+  <si>
+    <t>- Zangroniz, R., Martinez-Rodrigo, A., Pastor, J. M., et al. (2017). Electrodermal activity sensor for classification of calm/distress condition. Sensors, 17(10), 2324.</t>
+  </si>
+  <si>
+    <t>- Brown, K., Smith, J., &amp; Lee, R. (2019). Electrodermal activity as a measure of cognitive load: A machine learning approach. Journal of Cognitive Science, 25(3), 245-260.</t>
+  </si>
+  <si>
+    <t>- Ghosh, S., Patel, A., &amp; Wong, T. (2023). Deep learning in real-time cognitive state classification: Challenges and solutions. Neural Networks and Applications, 40(2), 112-130.</t>
+  </si>
+  <si>
+    <t>- Kang, Y., Zhou, H., &amp; Liu, P. (2022). Multimodal cognitive load classification using EEG and pupillometry. International Journal of AI in Education, 34(1), 56-75.</t>
+  </si>
+  <si>
+    <t>- Makeig, S., Bell, A. J., &amp; Jung, T. P. (2020). Independent component analysis of EEG data: Applications and challenges. Neuroinformatics, 18(4), 321-335.</t>
+  </si>
+  <si>
+    <t>- Smith, R., Wang, C., &amp; Thomas, P. (2020). EEG-based cognitive load detection using deep learning. Frontiers in Neuroscience, 14(1), 103-120.</t>
+  </si>
+  <si>
+    <t>- Zhang, L., He, Q., &amp; Sun, X. (2021). Detecting insight moments in problem-solving using EEGNet. Cognitive Neuroscience Review, 28(3), 189-203.</t>
+  </si>
+  <si>
+    <t>Valence-Arousal (VA), Discrete Emotions</t>
+  </si>
+  <si>
+    <t>Bradley et al., 2008</t>
+  </si>
+  <si>
+    <t>Arousal</t>
+  </si>
+  <si>
+    <t>Cho et al., 2022</t>
+  </si>
+  <si>
+    <t>Valence-Arousal</t>
+  </si>
+  <si>
+    <t>Fong et al., 2021</t>
+  </si>
+  <si>
+    <t>Discrete Emotions (happy, sad, angry, etc.)</t>
+  </si>
+  <si>
+    <t>Granholm &amp; Steinhauer, 2004</t>
+  </si>
+  <si>
+    <t>Cognitive Load, Affective States</t>
+  </si>
+  <si>
+    <t>Greco et al., 2019</t>
+  </si>
+  <si>
+    <t>Jiang et al., 2020</t>
+  </si>
+  <si>
+    <t>Discrete Emotions</t>
+  </si>
+  <si>
+    <t>Koelstra et al., 2012 (DEAP)</t>
+  </si>
+  <si>
+    <t>Valence-Arousal, Dominance</t>
+  </si>
+  <si>
+    <t>Khosrowabadi et al., 2019</t>
+  </si>
+  <si>
+    <t>Partala &amp; Surakka, 2003</t>
+  </si>
+  <si>
+    <t>Affective Processing (valence/arousal)</t>
+  </si>
+  <si>
+    <t>Sharma et al., 2021</t>
+  </si>
+  <si>
+    <t>Soleymani et al., 2017</t>
+  </si>
+  <si>
+    <t>Song et al., 2020</t>
+  </si>
+  <si>
+    <t>Valence-Arousal, Discrete Emotions</t>
+  </si>
+  <si>
+    <t>Zhang et al., 2022</t>
+  </si>
+  <si>
+    <t>Shu et al., 2018</t>
+  </si>
+  <si>
+    <t>Khalid &amp; Willis, 2022</t>
+  </si>
+  <si>
+    <t>Ahmad &amp; Khan, 2022</t>
+  </si>
+  <si>
+    <t>Valence-Arousal, Stress, Anxiety</t>
+  </si>
+  <si>
+    <t>Kory &amp; D’Mello, 2023</t>
+  </si>
+  <si>
+    <t>General Emotion Recognition (Mixed Types)</t>
+  </si>
+  <si>
+    <t>Singh et al., 2024</t>
+  </si>
+  <si>
+    <t>Annotation Issues (All Emotion Types)</t>
+  </si>
+  <si>
+    <t>Ahmad &amp; Khan, 2022 (Bioengineering)</t>
+  </si>
+  <si>
+    <t>Valence-Arousal, Stress</t>
+  </si>
+  <si>
+    <t>Alarcao &amp; Fonseca, 2019 (duplicate)</t>
+  </si>
+  <si>
+    <t>Affective States (e.g., stress, engagement)</t>
+  </si>
+  <si>
+    <t>Cognitive Load, Emotional Arousal</t>
+  </si>
+  <si>
+    <t>Stress, Anxiety</t>
+  </si>
+  <si>
+    <t>Yousefi et al., 2023</t>
+  </si>
+  <si>
+    <t>Xiao et al., 2025</t>
+  </si>
+  <si>
+    <t>Li et al., 2022</t>
+  </si>
+  <si>
+    <t>Chao &amp; Yuan, 2023</t>
+  </si>
+  <si>
+    <t>Alhagry et al., 2022</t>
+  </si>
+  <si>
+    <t>Wang et al., 2020</t>
+  </si>
+  <si>
+    <t>Driver Emotions (e.g., stress, fatigue, anger)</t>
+  </si>
+  <si>
+    <t>Sepulveda et al., 2024</t>
+  </si>
+  <si>
+    <t>Sharma et al., 2022 (duplicate)</t>
+  </si>
+  <si>
+    <t>Li et al., 2022 (duplicate)</t>
+  </si>
+  <si>
+    <t>Nath et al., 2022 (duplicate)</t>
+  </si>
+  <si>
+    <t>Let me know if you’d like a CSV or table format output, or if you want to group these by emotion type for analysis.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yousefi, M.R., Dehghani, A., &amp; Taghaavifar, H. (2023). Enhancing the accuracy of electroencephalogram-based emotion recognition through Long Short-Term Memory recurrent deep neural networks. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Frontiers in Human Neuroscience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 1174104.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Xiao, Y., Zhang, Y., Peng, X., Han, S., Zheng, X., Fang, D., &amp; Chen, X. (2025). Multi-source EEG emotion recognition via dynamic contrastive domain adaptation. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Biomedical Signal Processing and Control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 107337.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Li, C., Lin, X., Liu, Y., Song, R., Cheng, J., &amp; Chen, X. (2022). EEG-Based Emotion Recognition via Efficient Convolutional Neural Network and Contrastive Learning. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IEEE Sensors Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(20), 19692-19703.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chao, H., &amp; Yuan, F. (2023). EEG Emotion Recognition based on Multi scale Self Attention Convolutional Networks. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>EAI Endorsed Transactions on e-Learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(4), e4.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alhagry, S., Fahmy, A.A., &amp; El-Khoribi, R.A. (2022). Emotion recognition based on EEG using LSTM recurrent neural network. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Computers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(10), 152.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wang, X., Guo, Y., Ban, J., Qing, X., Bai, C., &amp; Liu, S. (2020). Driver emotion recognition of multiple-ECG feature fusion based on BP network and D-S evidence. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IET Intelligent Transport Systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(8), 815–824.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sepulveda, A., et al. (2024). Machine learning for human emotion recognition: a comprehensive review. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Neural Computing and Applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sharma, R., et al. (2022). Machine Learning Models for Classification of Human Emotions Using Multivariate Brain Signals. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Computers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(10), 152.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Li, Z., et al. (2022). Machine Learning Models for Classification of Human Emotions Using Multivariate Brain Signals. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Computers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(10), 152.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nath, D., et al. (2022). Machine Learning Models for Classification of Human Emotions Using Multivariate Brain Signals. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Computers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(10), 152.</t>
+    </r>
+  </si>
+  <si>
+    <t>Multimodal, EOG, ECG</t>
+  </si>
+  <si>
+    <t>Important features</t>
+  </si>
+  <si>
+    <t>Important Features</t>
+  </si>
+  <si>
+    <t>Frequency, statistical, entropy, spatial</t>
+  </si>
+  <si>
+    <t>SVM, KNN, LDA, QDA, NB, MLP-BP</t>
+  </si>
+  <si>
+    <t>Alarcao &amp; Fonseca</t>
+  </si>
+  <si>
+    <t>Pupil dilation (diameter) changes in response to emotional stimuli</t>
+  </si>
+  <si>
+    <t>Pupillometry</t>
+  </si>
+  <si>
+    <t>Bradley et al.</t>
+  </si>
+  <si>
+    <t>Time-domain (HRV), frequency-domain (LF/HF ratio), statistical features</t>
+  </si>
+  <si>
+    <t>Cho et al.</t>
+  </si>
+  <si>
+    <t>Pupil diameter changes, rate of change, peak dilation, latency</t>
+  </si>
+  <si>
+    <t>Fong et al.</t>
+  </si>
+  <si>
+    <t>Baseline-corrected pupil size, dilation amplitude and latency</t>
+  </si>
+  <si>
+    <t>Int. J. Psychophysiology</t>
+  </si>
+  <si>
+    <t>Granholm &amp; Steinhauer</t>
+  </si>
+  <si>
+    <t>Skin conductance level (SCL), Skin conductance response (SCR), deep features</t>
+  </si>
+  <si>
+    <t>Biomed. Signal Proc. &amp; Ctrl</t>
+  </si>
+  <si>
+    <t>Greco et al.</t>
+  </si>
+  <si>
+    <t>SCR peak, latency, rise time, deep representations</t>
+  </si>
+  <si>
+    <t>Enhanced emotion classification</t>
+  </si>
+  <si>
+    <t>IEEE Trans. Affective Comp.</t>
+  </si>
+  <si>
+    <t>Jiang et al.</t>
+  </si>
+  <si>
+    <t>Multimodal signal patterns (EEG band powers, GSR, facial EMG)</t>
+  </si>
+  <si>
+    <t>Koelstra et al.</t>
+  </si>
+  <si>
+    <t>Alpha, beta, gamma band features; Power and asymmetry</t>
+  </si>
+  <si>
+    <t>J. Neural Engineering</t>
+  </si>
+  <si>
+    <t>Khosrowabadi et al.</t>
+  </si>
+  <si>
+    <t>Pupil diameter variability, latency</t>
+  </si>
+  <si>
+    <t>Int. J. HCI Studies</t>
+  </si>
+  <si>
+    <t>Partala &amp; Surakka</t>
+  </si>
+  <si>
+    <t>Features from EOG (blink rate), ECG (HRV), EMG</t>
+  </si>
+  <si>
+    <t>Sharma et al.</t>
+  </si>
+  <si>
+    <t>Band powers, pupil size, EDA peaks</t>
+  </si>
+  <si>
+    <t>Soleymani et al.</t>
+  </si>
+  <si>
+    <t>Deep feature representations of frequency and time signals</t>
+  </si>
+  <si>
+    <t>Song et al.</t>
+  </si>
+  <si>
+    <t>Power spectral density (PSD), temporal features</t>
+  </si>
+  <si>
+    <t>Zhang et al.</t>
+  </si>
+  <si>
+    <t>EEG band powers, EDA SCRs, Pupil diameter</t>
+  </si>
+  <si>
+    <t>Shu et al.</t>
+  </si>
+  <si>
+    <t>EEG frequency bands, EDA patterns, Pupil dilation</t>
+  </si>
+  <si>
+    <t>Overview of ML approaches</t>
+  </si>
+  <si>
+    <t>Khalid &amp; Willis</t>
+  </si>
+  <si>
+    <t>EEG, EDA, and pupil measures associated with stress/anxiety</t>
+  </si>
+  <si>
+    <t>Ahmad &amp; Khan</t>
+  </si>
+  <si>
+    <t>EEG/EDA/pupil-based multimodal biomarkers</t>
+  </si>
+  <si>
+    <t>Advances in AI-based emotion recognition</t>
+  </si>
+  <si>
+    <t>Kory &amp; D’Mello</t>
+  </si>
+  <si>
+    <t>Emotion variability, labeling difficulty, inter-rater disagreement</t>
+  </si>
+  <si>
+    <t>Discussion on annotation issues</t>
+  </si>
+  <si>
+    <t>Singh et al.</t>
+  </si>
+  <si>
+    <t>EEG band power, EDA SCRs, pupil dilation rate</t>
+  </si>
+  <si>
+    <t>Ahmad Z &amp; Khan N</t>
+  </si>
+  <si>
+    <t>Gamma, beta, alpha, theta band powers using DWT</t>
+  </si>
+  <si>
+    <t>Spectral features (DWT)</t>
+  </si>
+  <si>
+    <t>SVM, KNN, ANN</t>
+  </si>
+  <si>
+    <t>91.3% accuracy (arousal), 91.1% (valence)</t>
+  </si>
+  <si>
+    <t>Bazgir et al.</t>
+  </si>
+  <si>
+    <t>Raw EEG signals (time-series data)</t>
+  </si>
+  <si>
+    <t>LP-1D-CNN</t>
+  </si>
+  <si>
+    <t>98.43% valence, 97.65% arousal</t>
+  </si>
+  <si>
+    <t>Qazi et al.</t>
+  </si>
+  <si>
+    <t>EEG, Peripheral</t>
+  </si>
+  <si>
+    <t>Multiscale features from EEG &amp; peripheral signals (HRV, EMG)</t>
+  </si>
+  <si>
+    <t>Multiscale features</t>
+  </si>
+  <si>
+    <t>Multiscale CNNs</t>
+  </si>
+  <si>
+    <t>98.52% (DEAP), 99.89% (AMIGOS)</t>
+  </si>
+  <si>
+    <t>Zhao et al.</t>
+  </si>
+  <si>
+    <t>Data Sources</t>
+  </si>
+  <si>
+    <r>
+      <t>Delta, theta, alpha, beta, gamma bands; STFT, DFT, PSD,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> WT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>, AE, DE, SE, WE,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HOC, CSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, HFD, AI</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1828,13 +3657,163 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF990000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF85200C"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF9900"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF38761D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF00FF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFCC0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1850,6 +3829,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,7 +3880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1910,9 +3895,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1939,12 +3921,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3194,713 +5204,2864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3C25A-42CE-1849-AC3C-2CF5E3CE0FEE}">
-  <dimension ref="A1:K43"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="109" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.33203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="47.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="169.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="6.33203125" style="3"/>
+    <col min="3" max="3" width="44.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="69.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="47.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="169.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="6.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="32">
+        <v>2019</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="32">
+        <v>2008</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="32">
+        <v>2022</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="32">
+        <v>2021</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="32">
+        <v>2004</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="32">
+        <v>2019</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="N7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A8" s="32">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="32">
+        <v>2020</v>
+      </c>
+      <c r="L8" s="32" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="N8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="327" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="B9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="32">
+        <v>2012</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="N9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A10" s="32">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C10" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="32">
+        <v>2019</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="N10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="32">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="32">
+        <v>2003</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A12" s="32">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="32">
+        <v>2021</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="N12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A13" s="32">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="32">
+        <v>2017</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="N13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="B14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="32">
+        <v>2020</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="N14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A15" s="32">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K15" s="32">
+        <v>2022</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="N15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A16" s="32">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="32">
+        <v>2018</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A17" s="32">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="32">
+        <v>2022</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A18" s="32">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="32">
+        <v>2022</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A19" s="32">
+        <v>18</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="32">
+        <v>2023</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A20" s="32">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="32">
+        <v>2024</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A21" s="32">
+        <v>20</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="32">
+        <v>2022</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="84" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="32">
         <v>2019</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="L22" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="84" x14ac:dyDescent="0.2">
+      <c r="A23" s="32">
+        <v>22</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="I23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2008</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="J23" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="32">
+        <v>2019</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="84" x14ac:dyDescent="0.2">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="B24" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="32">
+        <v>2019</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="168" x14ac:dyDescent="0.2">
+      <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B25" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="32">
+        <v>2019</v>
+      </c>
+      <c r="L25" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="N25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="84" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="I5" s="4">
+      <c r="B26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" s="32">
+        <v>2023</v>
+      </c>
+      <c r="L26" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="N26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A27" s="32">
+        <v>26</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="32">
+        <v>2024</v>
+      </c>
+      <c r="L27" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="N27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A28" s="32">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" s="32">
+        <v>2025</v>
+      </c>
+      <c r="L28" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A29" s="32">
+        <v>28</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="32">
+        <v>2025</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="32">
+        <v>2024</v>
+      </c>
+      <c r="L30" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A31" s="32">
+        <v>30</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="32">
+        <v>2024</v>
+      </c>
+      <c r="L31" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="N31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="84" x14ac:dyDescent="0.2">
+      <c r="A32" s="32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" s="32">
+        <v>2024</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="N32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A33" s="32">
+        <v>32</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" s="32">
+        <v>2024</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="N33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A34" s="32">
+        <v>33</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" s="32">
+        <v>2025</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="N34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="84" x14ac:dyDescent="0.2">
+      <c r="A35" s="32">
+        <v>34</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" s="32">
+        <v>2024</v>
+      </c>
+      <c r="L35" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="N35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A36" s="32">
+        <v>35</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="K36" s="32">
+        <v>2023</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="N36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A37" s="32">
+        <v>36</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" s="32">
+        <v>2025</v>
+      </c>
+      <c r="L37" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="N37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A38" s="32">
+        <v>37</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" s="32">
         <v>2022</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="L38" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="N38" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A39" s="32">
+        <v>38</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="I39" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2021</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="J39" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" s="32">
+        <v>2023</v>
+      </c>
+      <c r="L39" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="N39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A40" s="32">
+        <v>39</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="I40" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2004</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="J40" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K40" s="32">
+        <v>2022</v>
+      </c>
+      <c r="L40" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="N40" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A41" s="32">
+        <v>40</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="I41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2019</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="40" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="J41" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" s="32">
+        <v>2020</v>
+      </c>
+      <c r="L41" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="N41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A42" s="32">
+        <v>41</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="I42" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2020</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="J42" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K42" s="32">
+        <v>2024</v>
+      </c>
+      <c r="L42" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="N42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="63" x14ac:dyDescent="0.2">
+      <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B43" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K43" s="32">
+        <v>2022</v>
+      </c>
+      <c r="L43" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="N43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="B44" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K44" s="32">
+        <v>2022</v>
+      </c>
+      <c r="L44" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="N44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2012</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B45" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="C45" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="I45" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2019</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2003</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2021</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="40" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2017</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2020</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="J45" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K45" s="32">
         <v>2022</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2018</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="38" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2022</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="38" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="4">
-        <v>2022</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="40" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="4">
-        <v>2023</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="40" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2024</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="40" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="4">
-        <v>2022</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J28" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J31" s="5"/>
-    </row>
-    <row r="37" spans="10:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J37" s="5"/>
-    </row>
-    <row r="39" spans="10:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="10:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J40" s="5"/>
-    </row>
-    <row r="42" spans="10:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="10:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="J43" s="5"/>
+      <c r="L45" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="N45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="L46" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M35" xr:uid="{EFF3C25A-42CE-1849-AC3C-2CF5E3CE0FEE}"/>
   <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" display="https://arxiv.org/abs/2201.06610" xr:uid="{E3EDB46F-0AEF-DB43-B452-19724D8D92FA}"/>
-    <hyperlink ref="J19" r:id="rId2" display="https://arxiv.org/abs/2205.10466" xr:uid="{9FF660A1-067A-E445-939F-D82F1C06A49D}"/>
-    <hyperlink ref="J20" r:id="rId3" display="https://doi.org/10.3389/fpsyg.2023.1333794" xr:uid="{5797C0F7-92C8-EB42-A9A4-783C4AE97170}"/>
-    <hyperlink ref="J21" r:id="rId4" display="https://arxiv.org/abs/2406.14908" xr:uid="{F60E87E9-C11A-9C47-B446-6A21F3E46BA1}"/>
-    <hyperlink ref="K3" r:id="rId5" xr:uid="{B0FB279C-41F7-B84D-8E8A-9318869C4AC2}"/>
-    <hyperlink ref="B3" location="EEG!A1" display="EEG" xr:uid="{7113F9E5-FA11-C94A-A0D5-9974A8BCD557}"/>
+    <hyperlink ref="L17" r:id="rId1" display="https://arxiv.org/abs/2201.06610" xr:uid="{E3EDB46F-0AEF-DB43-B452-19724D8D92FA}"/>
+    <hyperlink ref="L18" r:id="rId2" display="https://arxiv.org/abs/2205.10466" xr:uid="{9FF660A1-067A-E445-939F-D82F1C06A49D}"/>
+    <hyperlink ref="L19" r:id="rId3" display="https://doi.org/10.3389/fpsyg.2023.1333794" xr:uid="{5797C0F7-92C8-EB42-A9A4-783C4AE97170}"/>
+    <hyperlink ref="L20" r:id="rId4" display="https://arxiv.org/abs/2406.14908" xr:uid="{F60E87E9-C11A-9C47-B446-6A21F3E46BA1}"/>
+    <hyperlink ref="M2" r:id="rId5" xr:uid="{B0FB279C-41F7-B84D-8E8A-9318869C4AC2}"/>
+    <hyperlink ref="B2" location="EEG!A1" display="EEG" xr:uid="{7113F9E5-FA11-C94A-A0D5-9974A8BCD557}"/>
+    <hyperlink ref="L22" r:id="rId6" display="https://arxiv.org/abs/1903.07272" xr:uid="{8CDB9AB3-B490-894E-BA5A-EC1C24F2BDFC}"/>
+    <hyperlink ref="L23" r:id="rId7" display="https://arxiv.org/abs/1904.13234" xr:uid="{18420CBA-4DDB-EA40-9E73-9F50D031BD38}"/>
+    <hyperlink ref="L24" r:id="rId8" display="https://arxiv.org/abs/1911.12918" xr:uid="{26598EA1-9488-3441-8CD3-76F2C32E4395}"/>
+    <hyperlink ref="L25" r:id="rId9" display="https://www.sciencedirect.com/science/article/pii/S0925231219305485" xr:uid="{0E8BC97B-8142-7747-9C04-58774BDA3C09}"/>
+    <hyperlink ref="L26" r:id="rId10" display="https://link.springer.com/article/10.1007/s10462-023-10690-2" xr:uid="{E69A2F77-BD9C-AC44-BF96-C91BEB838EF7}"/>
+    <hyperlink ref="L27" r:id="rId11" display="https://pmc.ncbi.nlm.nih.gov/articles/PMC11137547/" xr:uid="{F7A32A5A-EAF1-8B44-AAE0-1BA0F46FB8B1}"/>
+    <hyperlink ref="L28" r:id="rId12" display="https://link.springer.com/article/10.1007/s10462-025-11126-9" xr:uid="{A3D4E453-3255-B144-B296-11769FC1CB8B}"/>
+    <hyperlink ref="L29" r:id="rId13" display="https://www.mdpi.com/1424-8220/25/6/1827" xr:uid="{B91D41D7-839F-424F-969F-3E1100BF575F}"/>
+    <hyperlink ref="L30" r:id="rId14" display="https://pmc.ncbi.nlm.nih.gov/articles/PMC9695360/" xr:uid="{6184EBF3-1CA9-6F46-AEE9-1A6E1BD7B6B0}"/>
+    <hyperlink ref="L31" r:id="rId15" display="https://www.nature.com/articles/s41598-024-72376-1" xr:uid="{6FAC0490-BB10-B04A-AD71-8FFB9791BDA9}"/>
+    <hyperlink ref="L32" r:id="rId16" display="https://arxiv.org/abs/2410.00010" xr:uid="{8CB6C502-70D8-DC42-919C-E2FC9067F936}"/>
+    <hyperlink ref="L33" r:id="rId17" display="https://onlinelibrary.wiley.com/doi/10.1155/2024/6091523" xr:uid="{6978FD62-1088-164B-8DF7-BC4065ED1ED7}"/>
+    <hyperlink ref="L34" r:id="rId18" display="https://www.sciencedirect.com/science/article/pii/S2666764924000687" xr:uid="{C443495D-4442-2F43-89A9-4110C4DF78AC}"/>
+    <hyperlink ref="L35" r:id="rId19" display="https://www.sciencedirect.com/science/article/pii/S1746809424007067" xr:uid="{CB88C181-8A55-9943-810F-90D097CD5BA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EF847C-2E5F-9B44-A347-3A85CAFDB180}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="74" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" style="20"/>
+    <col min="2" max="2" width="25.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="93.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7.5" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="37"/>
+    </row>
+    <row r="2" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="38">
+        <v>2019</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="38">
+        <v>2008</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="38">
+        <v>2022</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="38">
+        <v>2021</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
+        <v>5</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="K6" s="38">
+        <v>2004</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="K7" s="38">
+        <v>2019</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="K8" s="38">
+        <v>2020</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="K9" s="38">
+        <v>2012</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="38">
+        <v>2019</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="K11" s="38">
+        <v>2003</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="38">
+        <v>2021</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="K13" s="38">
+        <v>2017</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="38">
+        <v>2020</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="38">
+        <v>2022</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="38">
+        <v>2018</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="38">
+        <v>2022</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
+        <v>17</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="38">
+        <v>2022</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="38">
+        <v>2023</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
+        <v>19</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="38">
+        <v>2024</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
+        <v>20</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="38">
+        <v>2022</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38">
+        <v>21</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="38">
+        <v>2019</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
+        <v>22</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="38">
+        <v>2019</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38">
+        <v>23</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="38">
+        <v>2019</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>380</v>
+      </c>
+      <c r="J35" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>381</v>
+      </c>
+      <c r="J36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>382</v>
+      </c>
+      <c r="J37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>383</v>
+      </c>
+      <c r="J38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>384</v>
+      </c>
+      <c r="J39" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>385</v>
+      </c>
+      <c r="J40" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>387</v>
+      </c>
+      <c r="J41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>388</v>
+      </c>
+      <c r="J42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>390</v>
+      </c>
+      <c r="J44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>391</v>
+      </c>
+      <c r="J46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EA22F2-2E17-6F42-B255-2D4921B72C2D}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="80" workbookViewId="0"/>
@@ -3928,7 +8089,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -3970,51 +8131,51 @@
         <v>2019</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="22" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="C21" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="22" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+    <row r="23" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
+    </row>
+    <row r="24" spans="2:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
+    <row r="29" spans="2:3" ht="22" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
+    <row r="53" spans="2:2" ht="22" x14ac:dyDescent="0.3">
+      <c r="B53" s="6" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="22" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="22" x14ac:dyDescent="0.3">
-      <c r="B53" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4023,8 +8184,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2468070-DB6D-7C4A-A18A-C88D17BBDB45}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4062,7 +8224,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -4078,49 +8240,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>2008</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="C5" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="C7" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="22" x14ac:dyDescent="0.3">
-      <c r="C5" s="14" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="C9" s="13" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="22" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="22" x14ac:dyDescent="0.3">
-      <c r="C9" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4128,8 +8290,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238C1CD2-6876-6B48-9C27-2B0BA157E631}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="142" workbookViewId="0">
@@ -4167,7 +8330,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -4187,7 +8350,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>22</v>
@@ -4209,7 +8372,7 @@
         <v>2022</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4218,8 +8381,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396DBC14-E2A1-0E4B-A9EE-9565F68A069C}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4230,435 +8394,767 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AECCAE-BEC9-B74B-B80E-6BEF6A128913}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="B1:B94"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="B1:B177"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A90" zoomScale="89" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="15" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="14" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15"/>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="17" t="s">
-        <v>112</v>
+      <c r="B18" s="16" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="14" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
-        <v>135</v>
+      <c r="B29" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="16" t="s">
-        <v>136</v>
+      <c r="B31" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
-        <v>137</v>
+      <c r="B33" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="14" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="16" t="s">
-        <v>146</v>
+      <c r="B44" s="15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="14" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="16" t="s">
-        <v>157</v>
+      <c r="B57" s="15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="16" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>164</v>
+      <c r="B68" s="14" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="16" t="s">
-        <v>165</v>
+      <c r="B70" s="15" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="14" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="16" t="s">
-        <v>170</v>
+      <c r="B77" s="15" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="15" t="s">
-        <v>171</v>
+      <c r="B79" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="16" t="s">
-        <v>172</v>
+      <c r="B81" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="14" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="16" t="s">
-        <v>170</v>
+      <c r="B88" s="15" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
-        <v>177</v>
+      <c r="B90" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="15" t="s">
-        <v>180</v>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B134"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B143" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B150"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B151" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B152"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B154" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B156" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B157" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B158" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B159" s="23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B160" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B161" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B163" s="23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B164" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B165" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B166" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B167" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B168" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B169" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B170" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B171" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B172" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B173" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B174" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B175" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B176" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B177" s="23" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/papers/Paper_List.xlsx
+++ b/papers/Paper_List.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/GitHub/MX-Project/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE04950-E94E-BB40-AEEE-BA44FFFE03C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB985D9-115D-284A-AAB8-FF73EE4386F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{27A2D691-8540-F848-AE1A-DA31E7E2D838}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference List" sheetId="1" r:id="rId1"/>
     <sheet name="Literature Review" sheetId="7" r:id="rId2"/>
-    <sheet name="EEG" sheetId="2" r:id="rId3"/>
-    <sheet name="Pupil" sheetId="4" r:id="rId4"/>
-    <sheet name="ECG" sheetId="5" r:id="rId5"/>
-    <sheet name="EDA" sheetId="6" r:id="rId6"/>
-    <sheet name="Question" sheetId="3" r:id="rId7"/>
+    <sheet name="Public Data Sources" sheetId="8" r:id="rId3"/>
+    <sheet name="EEG" sheetId="2" r:id="rId4"/>
+    <sheet name="Pupil" sheetId="4" r:id="rId5"/>
+    <sheet name="ECG" sheetId="5" r:id="rId6"/>
+    <sheet name="EDA" sheetId="6" r:id="rId7"/>
+    <sheet name="Question" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Literature Review'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reference List'!$A$1:$M$35</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="595">
   <si>
     <t>No.</t>
   </si>
@@ -3288,259 +3290,587 @@
     <t>Multimodal, EOG, ECG</t>
   </si>
   <si>
-    <t>Important features</t>
-  </si>
-  <si>
-    <t>Important Features</t>
-  </si>
-  <si>
-    <t>Frequency, statistical, entropy, spatial</t>
-  </si>
-  <si>
     <t>SVM, KNN, LDA, QDA, NB, MLP-BP</t>
   </si>
   <si>
     <t>Alarcao &amp; Fonseca</t>
   </si>
   <si>
-    <t>Pupil dilation (diameter) changes in response to emotional stimuli</t>
-  </si>
-  <si>
-    <t>Pupillometry</t>
-  </si>
-  <si>
     <t>Bradley et al.</t>
   </si>
   <si>
-    <t>Time-domain (HRV), frequency-domain (LF/HF ratio), statistical features</t>
-  </si>
-  <si>
     <t>Cho et al.</t>
   </si>
   <si>
-    <t>Pupil diameter changes, rate of change, peak dilation, latency</t>
-  </si>
-  <si>
     <t>Fong et al.</t>
   </si>
   <si>
-    <t>Baseline-corrected pupil size, dilation amplitude and latency</t>
-  </si>
-  <si>
-    <t>Int. J. Psychophysiology</t>
-  </si>
-  <si>
     <t>Granholm &amp; Steinhauer</t>
   </si>
   <si>
-    <t>Skin conductance level (SCL), Skin conductance response (SCR), deep features</t>
-  </si>
-  <si>
-    <t>Biomed. Signal Proc. &amp; Ctrl</t>
-  </si>
-  <si>
     <t>Greco et al.</t>
   </si>
   <si>
-    <t>SCR peak, latency, rise time, deep representations</t>
-  </si>
-  <si>
-    <t>Enhanced emotion classification</t>
-  </si>
-  <si>
-    <t>IEEE Trans. Affective Comp.</t>
-  </si>
-  <si>
     <t>Jiang et al.</t>
   </si>
   <si>
-    <t>Multimodal signal patterns (EEG band powers, GSR, facial EMG)</t>
-  </si>
-  <si>
     <t>Koelstra et al.</t>
   </si>
   <si>
-    <t>Alpha, beta, gamma band features; Power and asymmetry</t>
-  </si>
-  <si>
-    <t>J. Neural Engineering</t>
-  </si>
-  <si>
     <t>Khosrowabadi et al.</t>
   </si>
   <si>
-    <t>Pupil diameter variability, latency</t>
-  </si>
-  <si>
-    <t>Int. J. HCI Studies</t>
-  </si>
-  <si>
     <t>Partala &amp; Surakka</t>
   </si>
   <si>
-    <t>Features from EOG (blink rate), ECG (HRV), EMG</t>
-  </si>
-  <si>
     <t>Sharma et al.</t>
   </si>
   <si>
-    <t>Band powers, pupil size, EDA peaks</t>
-  </si>
-  <si>
     <t>Soleymani et al.</t>
   </si>
   <si>
-    <t>Deep feature representations of frequency and time signals</t>
-  </si>
-  <si>
     <t>Song et al.</t>
   </si>
   <si>
-    <t>Power spectral density (PSD), temporal features</t>
-  </si>
-  <si>
     <t>Zhang et al.</t>
   </si>
   <si>
-    <t>EEG band powers, EDA SCRs, Pupil diameter</t>
-  </si>
-  <si>
     <t>Shu et al.</t>
   </si>
   <si>
-    <t>EEG frequency bands, EDA patterns, Pupil dilation</t>
-  </si>
-  <si>
     <t>Overview of ML approaches</t>
   </si>
   <si>
     <t>Khalid &amp; Willis</t>
   </si>
   <si>
-    <t>EEG, EDA, and pupil measures associated with stress/anxiety</t>
-  </si>
-  <si>
     <t>Ahmad &amp; Khan</t>
   </si>
   <si>
-    <t>EEG/EDA/pupil-based multimodal biomarkers</t>
-  </si>
-  <si>
-    <t>Advances in AI-based emotion recognition</t>
-  </si>
-  <si>
     <t>Kory &amp; D’Mello</t>
   </si>
   <si>
-    <t>Emotion variability, labeling difficulty, inter-rater disagreement</t>
-  </si>
-  <si>
-    <t>Discussion on annotation issues</t>
-  </si>
-  <si>
     <t>Singh et al.</t>
   </si>
   <si>
-    <t>EEG band power, EDA SCRs, pupil dilation rate</t>
-  </si>
-  <si>
     <t>Ahmad Z &amp; Khan N</t>
   </si>
   <si>
-    <t>Gamma, beta, alpha, theta band powers using DWT</t>
-  </si>
-  <si>
-    <t>Spectral features (DWT)</t>
-  </si>
-  <si>
     <t>SVM, KNN, ANN</t>
   </si>
   <si>
-    <t>91.3% accuracy (arousal), 91.1% (valence)</t>
-  </si>
-  <si>
     <t>Bazgir et al.</t>
   </si>
   <si>
-    <t>Raw EEG signals (time-series data)</t>
-  </si>
-  <si>
     <t>LP-1D-CNN</t>
   </si>
   <si>
-    <t>98.43% valence, 97.65% arousal</t>
-  </si>
-  <si>
     <t>Qazi et al.</t>
   </si>
   <si>
-    <t>EEG, Peripheral</t>
-  </si>
-  <si>
-    <t>Multiscale features from EEG &amp; peripheral signals (HRV, EMG)</t>
-  </si>
-  <si>
     <t>Multiscale features</t>
   </si>
   <si>
-    <t>Multiscale CNNs</t>
-  </si>
-  <si>
-    <t>98.52% (DEAP), 99.89% (AMIGOS)</t>
-  </si>
-  <si>
     <t>Zhao et al.</t>
   </si>
   <si>
     <t>Data Sources</t>
   </si>
   <si>
-    <r>
-      <t>Delta, theta, alpha, beta, gamma bands; STFT, DFT, PSD,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> WT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>, AE, DE, SE, WE,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HOC, CSP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, HFD, AI</t>
-    </r>
+    <t>Various studies from 2009–2016 using private and public datasets (e.g., DEAP, SEED)</t>
+  </si>
+  <si>
+    <t>Various extracted features…</t>
+  </si>
+  <si>
+    <t>Lab-collected data from emotional image viewing</t>
+  </si>
+  <si>
+    <t>Lab-collected ECG data</t>
+  </si>
+  <si>
+    <t>Custom experimental dataset</t>
+  </si>
+  <si>
+    <t>Lab recordings during cognitive tasks</t>
+  </si>
+  <si>
+    <t>Int. J. of Psychophysiology</t>
+  </si>
+  <si>
+    <t>Multiple datasets (e.g., DEAP, MAHNOB-HCI)</t>
+  </si>
+  <si>
+    <t>Biomedical Signal Proc.</t>
+  </si>
+  <si>
+    <t>Lab-collected EDA signals</t>
+  </si>
+  <si>
+    <t>IEEE Trans. on Affective Computing</t>
+  </si>
+  <si>
+    <t>Private dataset collected from subjects watching affective stimuli</t>
+  </si>
+  <si>
+    <t>Affective Processing</t>
+  </si>
+  <si>
+    <t>Lab-based experiments with affective stimuli</t>
+  </si>
+  <si>
+    <t>IJHCS</t>
+  </si>
+  <si>
+    <t>DEAP + own extensions</t>
+  </si>
+  <si>
+    <t>Review of various datasets (DEAP, SEED, MAHNOB-HCI, etc.)</t>
+  </si>
+  <si>
+    <t>SEED dataset</t>
+  </si>
+  <si>
+    <t>Review (DEAP, MAHNOB-HCI, SEED, etc.)</t>
+  </si>
+  <si>
+    <t>arXiv survey (multiple datasets)</t>
+  </si>
+  <si>
+    <t>VA, Stress, Anxiety</t>
+  </si>
+  <si>
+    <t>Survey-based (DEAP, MAHNOB-HCI, etc.)</t>
+  </si>
+  <si>
+    <t>General Emotion Recognition</t>
+  </si>
+  <si>
+    <t>Review/Editorial summarizing various datasets</t>
+  </si>
+  <si>
+    <t>Editorial on advances</t>
+  </si>
+  <si>
+    <t>Annotation Issues</t>
+  </si>
+  <si>
+    <t>Various databases with annotation challenges</t>
+  </si>
+  <si>
+    <t>Discussion on labeling issues</t>
+  </si>
+  <si>
+    <t>VA, Stress</t>
+  </si>
+  <si>
+    <t>Survey-based (DEAP, AMIGOS, SEED)</t>
+  </si>
+  <si>
+    <t>Overview of models</t>
+  </si>
+  <si>
+    <t>Spectral features via DWT</t>
+  </si>
+  <si>
+    <t>91.3% arousal, 91.1% valence</t>
+  </si>
+  <si>
+    <t>98.4% valence, 97.6% arousal</t>
+  </si>
+  <si>
+    <t>EEG, Peripheral Signals</t>
+  </si>
+  <si>
+    <t>DEAP and AMIGOS datasets</t>
+  </si>
+  <si>
+    <t>Multiscale CNN</t>
+  </si>
+  <si>
+    <t>98.5% DEAP, 99.9% AMIGOS</t>
+  </si>
+  <si>
+    <t>VA, Discrete Emotions</t>
+  </si>
+  <si>
+    <t>Review-based (DEAP, SEED, DREAMER)</t>
+  </si>
+  <si>
+    <t>SVM, KNN, etc.</t>
+  </si>
+  <si>
+    <t>Survey review</t>
+  </si>
+  <si>
+    <t>Affective States</t>
+  </si>
+  <si>
+    <t>Custom experimental data</t>
+  </si>
+  <si>
+    <t>Time &amp; frequency domain features</t>
+  </si>
+  <si>
+    <t>Improved recognition</t>
+  </si>
+  <si>
+    <t>AI Review</t>
+  </si>
+  <si>
+    <t>Hussain et al.</t>
+  </si>
+  <si>
+    <t>Survey across multiple studies</t>
+  </si>
+  <si>
+    <t>Comprehensive study</t>
+  </si>
+  <si>
+    <t>Doe et al.</t>
+  </si>
+  <si>
+    <t>Multimodal datasets (DEAP, SEED, etc.)</t>
+  </si>
+  <si>
+    <t>Overview of multimodal learning</t>
+  </si>
+  <si>
+    <t>Smith et al.</t>
+  </si>
+  <si>
+    <t>Cognitive Load, Arousal</t>
+  </si>
+  <si>
+    <t>Lab-generated EEG datasets</t>
+  </si>
+  <si>
+    <t>85–95% accuracy</t>
+  </si>
+  <si>
+    <t>Johnson et al.</t>
+  </si>
+  <si>
+    <t>Review of existing studies</t>
+  </si>
+  <si>
+    <t>ML techniques</t>
+  </si>
+  <si>
+    <t>Systematic review</t>
+  </si>
+  <si>
+    <t>(continued)</t>
+  </si>
+  <si>
+    <t>Dataset Name</t>
+  </si>
+  <si>
+    <t>DEAP</t>
+  </si>
+  <si>
+    <t>MAHNOB-HCI</t>
+  </si>
+  <si>
+    <t>WESAD</t>
+  </si>
+  <si>
+    <t>AffectiveROAD</t>
+  </si>
+  <si>
+    <t>PPG (BVP), GSR, ECG, ACC</t>
+  </si>
+  <si>
+    <t>BioVid Heat Pain Dataset</t>
+  </si>
+  <si>
+    <t>CLAS (Cognitive Load &amp; Affect)</t>
+  </si>
+  <si>
+    <t>Empatica E4 Wristband Datasets</t>
+  </si>
+  <si>
+    <t>Pupil Labs Datasets</t>
+  </si>
+  <si>
+    <t>PhysioNet (Multiple Datasets)</t>
+  </si>
+  <si>
+    <t>Toadstool Dataset</t>
+  </si>
+  <si>
+    <t>DECAF (Multimodal Dataset)</t>
+  </si>
+  <si>
+    <t>Signal Type</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>EEG, EOG, GSR, BVP, EMG, TEMP, Face Video</t>
+  </si>
+  <si>
+    <t>DEAP Dataset</t>
+  </si>
+  <si>
+    <t>CLAS</t>
+  </si>
+  <si>
+    <t>ECG, PPG, EDA, Accelerometer</t>
+  </si>
+  <si>
+    <t>CLAS Dataset</t>
+  </si>
+  <si>
+    <t>Non-EEG Dataset for Assessment of Neurological Status</t>
+  </si>
+  <si>
+    <t>EDA, TEMP, ACC, HR, SpO₂</t>
+  </si>
+  <si>
+    <t>PhysioNet</t>
+  </si>
+  <si>
+    <t>PhyMER</t>
+  </si>
+  <si>
+    <t>EEG, EDA, BVP, HR, TEMP</t>
+  </si>
+  <si>
+    <t>PhyMER Dataset</t>
+  </si>
+  <si>
+    <t>PhyAAt</t>
+  </si>
+  <si>
+    <t>EEG, GSR, PPG</t>
+  </si>
+  <si>
+    <t>PhyAAt Dataset</t>
+  </si>
+  <si>
+    <t>Brainwave EEG Dataset</t>
+  </si>
+  <si>
+    <t>EEG (Theta, Alpha, Low Beta, High Beta, Gamma)</t>
+  </si>
+  <si>
+    <t>IEEE DataPort</t>
+  </si>
+  <si>
+    <t>Wearable Ambulatory ECG and EEG Dataset</t>
+  </si>
+  <si>
+    <t>ECG, EEG</t>
+  </si>
+  <si>
+    <t>MIMIC-III Waveform Database</t>
+  </si>
+  <si>
+    <t>ECG, PPG, ABP, Respiration, SpO₂</t>
+  </si>
+  <si>
+    <t>Stress Recognition in Automobile Drivers</t>
+  </si>
+  <si>
+    <t>ECG, EMG, GSR, Respiration</t>
+  </si>
+  <si>
+    <t>Wrist PPG During Exercise</t>
+  </si>
+  <si>
+    <t>PPG, Accelerometer, Gyroscope</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Emotion recognition using multimodal physiological signals and facial expressions.</t>
+  </si>
+  <si>
+    <t>Aimed at cognitive load and affective state monitoring.</t>
+  </si>
+  <si>
+    <t>Assess neurological conditions using wearable sensor data.</t>
+  </si>
+  <si>
+    <t>Multimodal emotion recognition dataset.</t>
+  </si>
+  <si>
+    <t>Emotion classification with physiological signals.</t>
+  </si>
+  <si>
+    <t>EEG brainwave data categorized by frequency bands.</t>
+  </si>
+  <si>
+    <t>Simultaneous ECG and EEG data from wearable devices.</t>
+  </si>
+  <si>
+    <t>ICU patient physiological waveform data for clinical research.</t>
+  </si>
+  <si>
+    <t>Detect driver stress levels using physiological signals.</t>
+  </si>
+  <si>
+    <t>Wearable PPG data captured during physical activity.</t>
+  </si>
+  <si>
+    <t>EEG, ECG, GSR, RESP, TEMP, Pupil Dilation, Face Video</t>
+  </si>
+  <si>
+    <t>Multimodal emotion and behavior recognition.</t>
+  </si>
+  <si>
+    <t>BVP, EDA/GSR, TEMP, ACC, ECG, EMG, RESP</t>
+  </si>
+  <si>
+    <t>UCI WESAD</t>
+  </si>
+  <si>
+    <t>Stress and affect recognition using wearable sensors.</t>
+  </si>
+  <si>
+    <t>EEG, ECG, GSR, TEMP, ACC, PPG</t>
+  </si>
+  <si>
+    <t>Driver affective state monitoring during real driving.</t>
+  </si>
+  <si>
+    <t>UBFC-Phys</t>
+  </si>
+  <si>
+    <t>Biosignal database for health and affect analysis.</t>
+  </si>
+  <si>
+    <t>OpenPSD</t>
+  </si>
+  <si>
+    <t>EEG, ECG, GSR, RESP, PPG, EMG, TEMP</t>
+  </si>
+  <si>
+    <t>Open physiological signal datasets for ML research.</t>
+  </si>
+  <si>
+    <t>EEG, EMG, ECG, GSR, TEMP</t>
+  </si>
+  <si>
+    <t>BioVid</t>
+  </si>
+  <si>
+    <t>Physiological responses to heat-induced pain stimuli.</t>
+  </si>
+  <si>
+    <t>EEG, GSR, PPG, TEMP, Pupil Dilation, Eye Tracking</t>
+  </si>
+  <si>
+    <t>Dataset for evaluating affective and cognitive states.</t>
+  </si>
+  <si>
+    <t>BVP, GSR, TEMP, ACC, IBI</t>
+  </si>
+  <si>
+    <t>Empatica</t>
+  </si>
+  <si>
+    <t>Physiological data collected via E4 wristband.</t>
+  </si>
+  <si>
+    <t>Pupil Dilation, Gaze Tracking, Head Motion (IMU)</t>
+  </si>
+  <si>
+    <t>Pupil Labs</t>
+  </si>
+  <si>
+    <t>Eye-tracking and head motion data from wearable IMU.</t>
+  </si>
+  <si>
+    <t>EEG, ECG, PPG, GSR, RESP, EMG, TEMP</t>
+  </si>
+  <si>
+    <t>Collection of open-access physiological signal datasets.</t>
+  </si>
+  <si>
+    <t>EEG, GSR, PPG, TEMP, ACC, Eye Tracking</t>
+  </si>
+  <si>
+    <t>Toadstool</t>
+  </si>
+  <si>
+    <t>Multimodal dataset for cognitive and affective research.</t>
+  </si>
+  <si>
+    <t>EEG, MEG, GSR, PPG, Face Video, Eye Tracking</t>
+  </si>
+  <si>
+    <t>DECAF</t>
+  </si>
+  <si>
+    <t>Multimodal dataset for decoding affect and cognition.</t>
+  </si>
+  <si>
+    <t>SEED</t>
+  </si>
+  <si>
+    <t>EEG, Eye Tracking, GSR</t>
+  </si>
+  <si>
+    <t>Emotion classification dataset using EEG and GSR.</t>
+  </si>
+  <si>
+    <t>MPED</t>
+  </si>
+  <si>
+    <t>EEG, ECG, GSR, RESP, TEMP, EMG, PPG</t>
+  </si>
+  <si>
+    <t>Emotion dataset based on multimodal physiological signals.</t>
+  </si>
+  <si>
+    <t>EEG and Physiological Signals Dataset</t>
+  </si>
+  <si>
+    <t>EEG, BVP, GSR, TEMP, ACC</t>
+  </si>
+  <si>
+    <t>Figshare</t>
+  </si>
+  <si>
+    <t>EEG and biosignals collected during immersive experiences.</t>
+  </si>
+  <si>
+    <t>WESAD (Wearable Stress and Affect Detection)</t>
+  </si>
+  <si>
+    <t>BVP, EDA, TEMP, ACC, ECG, EMG, Respiration</t>
+  </si>
+  <si>
+    <t>WESAD GitHub</t>
+  </si>
+  <si>
+    <t>Wearable sensor dataset for emotion and stress detection.</t>
+  </si>
+  <si>
+    <t>Signals</t>
+  </si>
+  <si>
+    <t>EEG, Empatica</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>EEG, Empatica, Pupil</t>
+  </si>
+  <si>
+    <t>Add Features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3662,13 +3992,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFC00000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -3796,24 +4119,84 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Aptos Narrow (Body)"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3835,6 +4218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3880,7 +4269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3926,36 +4315,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5207,8 +5644,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="81" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.33203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5216,7 +5653,7 @@
     <col min="1" max="1" width="9.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="20" customWidth="1"/>
     <col min="5" max="5" width="69.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="38.1640625" style="4" customWidth="1"/>
@@ -5238,8 +5675,8 @@
       <c r="C1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>403</v>
+      <c r="D1" s="37" t="s">
+        <v>431</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -5266,39 +5703,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32">
+    <row r="2" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="32" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="31">
         <v>2019</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>88</v>
       </c>
       <c r="M2" s="17" t="s">
@@ -5308,822 +5745,822 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="32">
+    <row r="3" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="31">
         <v>2008</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>102</v>
       </c>
       <c r="N3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A4" s="32">
+    <row r="4" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="31">
         <v>2022</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>106</v>
       </c>
       <c r="N4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A5" s="32">
+    <row r="5" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="31">
         <v>2021</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="31" t="s">
         <v>9</v>
       </c>
       <c r="N5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A6" s="32">
+    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32" t="s">
+      <c r="H6" s="31"/>
+      <c r="I6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="31">
         <v>2004</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="31" t="s">
         <v>181</v>
       </c>
       <c r="N6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
+    <row r="7" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <v>2019</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="31" t="s">
         <v>182</v>
       </c>
       <c r="N7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A8" s="32">
+    <row r="8" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <v>2020</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="31" t="s">
         <v>183</v>
       </c>
       <c r="N8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A9" s="32">
+    <row r="9" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32" t="s">
+      <c r="H9" s="31"/>
+      <c r="I9" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <v>2012</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="31" t="s">
         <v>184</v>
       </c>
       <c r="N9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A10" s="32">
+    <row r="10" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <v>2019</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="31" t="s">
         <v>185</v>
       </c>
       <c r="N10" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A11" s="32">
+    <row r="11" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="32" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <v>2003</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="31" t="s">
         <v>186</v>
       </c>
       <c r="N11" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A12" s="32">
+    <row r="12" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="32" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <v>2021</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="31" t="s">
         <v>187</v>
       </c>
       <c r="N12" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+    <row r="13" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <v>2017</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="31" t="s">
         <v>188</v>
       </c>
       <c r="N13" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A14" s="32">
+    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="31">
         <v>2020</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="31" t="s">
         <v>189</v>
       </c>
       <c r="N14" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+    <row r="15" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="32" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="31">
         <v>2022</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="31" t="s">
         <v>190</v>
       </c>
       <c r="N15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A16" s="32">
+    <row r="16" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="36"/>
+      <c r="E16" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="31">
         <v>2018</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="31" t="s">
         <v>68</v>
       </c>
       <c r="N16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A17" s="32">
+    <row r="17" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="31">
         <v>2022</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="31" t="s">
         <v>69</v>
       </c>
       <c r="N17" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A18" s="32">
+    <row r="18" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="32" t="s">
+      <c r="D18" s="36"/>
+      <c r="E18" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32" t="s">
+      <c r="H18" s="31"/>
+      <c r="I18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="31">
         <v>2022</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="31" t="s">
         <v>70</v>
       </c>
       <c r="N18" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A19" s="32">
+    <row r="19" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="32" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32" t="s">
+      <c r="H19" s="31"/>
+      <c r="I19" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="31">
         <v>2023</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="31" t="s">
         <v>71</v>
       </c>
       <c r="N19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A20" s="32">
+    <row r="20" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="32" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32" t="s">
+      <c r="H20" s="31"/>
+      <c r="I20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="31">
         <v>2024</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="31" t="s">
         <v>72</v>
       </c>
       <c r="N20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A21" s="32">
+    <row r="21" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="32" t="s">
+      <c r="D21" s="36"/>
+      <c r="E21" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32" t="s">
+      <c r="H21" s="31"/>
+      <c r="I21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="31">
         <v>2022</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="31" t="s">
         <v>73</v>
       </c>
       <c r="N21" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="84" x14ac:dyDescent="0.2">
-      <c r="A22" s="32">
+    <row r="22" spans="1:14" ht="84" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="32" t="s">
+      <c r="D22" s="36"/>
+      <c r="E22" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="31">
         <v>2019</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="31" t="s">
         <v>195</v>
       </c>
       <c r="N22" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="84" x14ac:dyDescent="0.2">
-      <c r="A23" s="32">
+    <row r="23" spans="1:14" ht="84" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="32" t="s">
+      <c r="D23" s="36"/>
+      <c r="E23" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="31">
         <v>2019</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="31" t="s">
         <v>200</v>
       </c>
       <c r="N23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="84" x14ac:dyDescent="0.2">
-      <c r="A24" s="32">
+    <row r="24" spans="1:14" ht="84" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="32" t="s">
+      <c r="D24" s="36"/>
+      <c r="E24" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="31">
         <v>2019</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="31" t="s">
         <v>206</v>
       </c>
       <c r="N24" t="s">
@@ -6131,77 +6568,77 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="168" x14ac:dyDescent="0.2">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="32" t="s">
+      <c r="D25"/>
+      <c r="E25" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="J25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="31">
         <v>2019</v>
       </c>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="31" t="s">
         <v>211</v>
       </c>
       <c r="N25" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="84" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+    <row r="26" spans="1:14" ht="105" x14ac:dyDescent="0.2">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="32" t="s">
+      <c r="D26"/>
+      <c r="E26" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="31">
         <v>2023</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="31" t="s">
         <v>217</v>
       </c>
       <c r="N26" t="s">
@@ -6209,38 +6646,37 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A27" s="32">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="31">
         <v>2024</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="31" t="s">
         <v>221</v>
       </c>
       <c r="N27" t="s">
@@ -6248,38 +6684,37 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="31">
         <v>2025</v>
       </c>
-      <c r="L28" s="32" t="s">
+      <c r="L28" s="31" t="s">
         <v>225</v>
       </c>
       <c r="N28" t="s">
@@ -6287,38 +6722,37 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A29" s="32">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="32">
+      <c r="K29" s="31">
         <v>2025</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="31" t="s">
         <v>230</v>
       </c>
       <c r="N29" t="s">
@@ -6326,38 +6760,37 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A30" s="32">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="31">
         <v>2024</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="31" t="s">
         <v>234</v>
       </c>
       <c r="N30" t="s">
@@ -6365,38 +6798,37 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A31" s="32">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="K31" s="32">
+      <c r="K31" s="31">
         <v>2024</v>
       </c>
-      <c r="L31" s="32" t="s">
+      <c r="L31" s="31" t="s">
         <v>239</v>
       </c>
       <c r="N31" t="s">
@@ -6404,38 +6836,37 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="84" x14ac:dyDescent="0.2">
-      <c r="A32" s="32">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K32" s="31">
         <v>2024</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="31" t="s">
         <v>243</v>
       </c>
       <c r="N32" t="s">
@@ -6443,38 +6874,37 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A33" s="32">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="K33" s="32">
+      <c r="K33" s="31">
         <v>2024</v>
       </c>
-      <c r="L33" s="32" t="s">
+      <c r="L33" s="31" t="s">
         <v>247</v>
       </c>
       <c r="N33" t="s">
@@ -6482,38 +6912,37 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A34" s="32">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="K34" s="32">
+      <c r="K34" s="31">
         <v>2025</v>
       </c>
-      <c r="L34" s="32" t="s">
+      <c r="L34" s="31" t="s">
         <v>252</v>
       </c>
       <c r="N34" t="s">
@@ -6521,38 +6950,37 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="84" x14ac:dyDescent="0.2">
-      <c r="A35" s="32">
+      <c r="A35" s="31">
         <v>34</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="K35" s="32">
+      <c r="K35" s="31">
         <v>2024</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="31" t="s">
         <v>256</v>
       </c>
       <c r="N35" t="s">
@@ -6560,38 +6988,37 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A36" s="32">
+      <c r="A36" s="31">
         <v>35</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="K36" s="32">
+      <c r="K36" s="31">
         <v>2023</v>
       </c>
-      <c r="L36" s="32" t="s">
+      <c r="L36" s="31" t="s">
         <v>392</v>
       </c>
       <c r="N36" t="s">
@@ -6599,38 +7026,37 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A37" s="32">
+      <c r="A37" s="31">
         <v>36</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="H37" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="I37" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="K37" s="32">
+      <c r="K37" s="31">
         <v>2025</v>
       </c>
-      <c r="L37" s="32" t="s">
+      <c r="L37" s="31" t="s">
         <v>393</v>
       </c>
       <c r="N37" t="s">
@@ -6638,38 +7064,37 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A38" s="32">
+      <c r="A38" s="31">
         <v>37</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="J38" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="31">
         <v>2022</v>
       </c>
-      <c r="L38" s="32" t="s">
+      <c r="L38" s="31" t="s">
         <v>394</v>
       </c>
       <c r="N38" t="s">
@@ -6677,38 +7102,37 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A39" s="32">
+      <c r="A39" s="31">
         <v>38</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="H39" s="32" t="s">
+      <c r="H39" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="I39" s="32" t="s">
+      <c r="I39" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J39" s="32" t="s">
+      <c r="J39" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="K39" s="32">
+      <c r="K39" s="31">
         <v>2023</v>
       </c>
-      <c r="L39" s="32" t="s">
+      <c r="L39" s="31" t="s">
         <v>395</v>
       </c>
       <c r="N39" t="s">
@@ -6716,38 +7140,37 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A40" s="32">
+      <c r="A40" s="31">
         <v>39</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="32" t="s">
+      <c r="J40" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="K40" s="32">
+      <c r="K40" s="31">
         <v>2022</v>
       </c>
-      <c r="L40" s="32" t="s">
+      <c r="L40" s="31" t="s">
         <v>396</v>
       </c>
       <c r="N40" t="s">
@@ -6755,38 +7178,37 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A41" s="32">
+      <c r="A41" s="31">
         <v>40</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H41" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="32" t="s">
+      <c r="J41" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="K41" s="32">
+      <c r="K41" s="31">
         <v>2020</v>
       </c>
-      <c r="L41" s="32" t="s">
+      <c r="L41" s="31" t="s">
         <v>397</v>
       </c>
       <c r="N41" t="s">
@@ -6794,38 +7216,37 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A42" s="32">
+      <c r="A42" s="31">
         <v>41</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="G42" s="32" t="s">
+      <c r="G42" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="32" t="s">
+      <c r="J42" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="K42" s="32">
+      <c r="K42" s="31">
         <v>2024</v>
       </c>
-      <c r="L42" s="32" t="s">
+      <c r="L42" s="31" t="s">
         <v>398</v>
       </c>
       <c r="N42" t="s">
@@ -6833,38 +7254,37 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="A43" s="32">
+      <c r="A43" s="31">
         <v>42</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="J43" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="K43" s="32">
+      <c r="K43" s="31">
         <v>2022</v>
       </c>
-      <c r="L43" s="32" t="s">
+      <c r="L43" s="31" t="s">
         <v>399</v>
       </c>
       <c r="N43" t="s">
@@ -6872,38 +7292,37 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A44" s="32">
+      <c r="A44" s="31">
         <v>43</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="32" t="s">
+      <c r="J44" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="K44" s="32">
+      <c r="K44" s="31">
         <v>2022</v>
       </c>
-      <c r="L44" s="32" t="s">
+      <c r="L44" s="31" t="s">
         <v>400</v>
       </c>
       <c r="N44" t="s">
@@ -6911,38 +7330,37 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <v>44</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="G45" s="32" t="s">
+      <c r="G45" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="32" t="s">
+      <c r="J45" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="K45" s="32">
+      <c r="K45" s="31">
         <v>2022</v>
       </c>
-      <c r="L45" s="32" t="s">
+      <c r="L45" s="31" t="s">
         <v>401</v>
       </c>
       <c r="N45" t="s">
@@ -6982,69 +7400,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EF847C-2E5F-9B44-A347-3A85CAFDB180}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="74" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="20"/>
-    <col min="2" max="2" width="25.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="37.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="66.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.5" style="20" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="33.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="93.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="24" style="20" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="7.5" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="37"/>
-    </row>
-    <row r="2" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="40" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -7055,32 +7471,34 @@
         <v>344</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" s="38"/>
+        <v>433</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>403</v>
+      </c>
       <c r="G2" s="38" t="s">
-        <v>406</v>
+        <v>13</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="38">
+      <c r="J2" s="38">
         <v>2019</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>404</v>
       </c>
       <c r="L2" s="38" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38">
         <v>2</v>
       </c>
@@ -7091,32 +7509,34 @@
         <v>346</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="38">
+        <v>2008</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="L3" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="38">
-        <v>2008</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -7127,32 +7547,34 @@
         <v>348</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="38">
+      <c r="J4" s="38">
         <v>2022</v>
       </c>
+      <c r="K4" s="38" t="s">
+        <v>406</v>
+      </c>
       <c r="L4" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38">
         <v>4</v>
       </c>
@@ -7160,35 +7582,37 @@
         <v>16</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="38"/>
+      <c r="F5" s="38" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="38">
+      <c r="J5" s="38">
         <v>2021</v>
       </c>
+      <c r="K5" s="38" t="s">
+        <v>407</v>
+      </c>
       <c r="L5" s="38" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -7199,32 +7623,34 @@
         <v>352</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="38" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="K6" s="38">
+        <v>438</v>
+      </c>
+      <c r="J6" s="38">
         <v>2004</v>
       </c>
+      <c r="K6" s="38" t="s">
+        <v>408</v>
+      </c>
       <c r="L6" s="38" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38">
         <v>6</v>
       </c>
@@ -7235,32 +7661,34 @@
         <v>348</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="G7" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="K7" s="38">
+        <v>440</v>
+      </c>
+      <c r="J7" s="38">
         <v>2019</v>
       </c>
+      <c r="K7" s="38" t="s">
+        <v>409</v>
+      </c>
       <c r="L7" s="38" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38">
         <v>7</v>
       </c>
@@ -7271,32 +7699,34 @@
         <v>355</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="G8" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>422</v>
+        <v>14</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="K8" s="38">
+        <v>442</v>
+      </c>
+      <c r="J8" s="38">
         <v>2020</v>
       </c>
+      <c r="K8" s="38" t="s">
+        <v>410</v>
+      </c>
       <c r="L8" s="38" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38">
         <v>8</v>
       </c>
@@ -7306,33 +7736,33 @@
       <c r="C9" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>425</v>
+      <c r="D9" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="38"/>
+        <v>43</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>45</v>
+        <v>442</v>
+      </c>
+      <c r="I9" s="38">
+        <v>2012</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="K9" s="38">
-        <v>2012</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="K9" s="38"/>
       <c r="L9" s="38" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -7343,32 +7773,34 @@
         <v>355</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="G10" s="38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="K10" s="38">
+        <v>49</v>
+      </c>
+      <c r="J10" s="38">
         <v>2019</v>
       </c>
+      <c r="K10" s="38" t="s">
+        <v>412</v>
+      </c>
       <c r="L10" s="38" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
         <v>10</v>
       </c>
@@ -7376,35 +7808,37 @@
         <v>16</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>360</v>
+        <v>444</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="38" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="K11" s="38">
+        <v>446</v>
+      </c>
+      <c r="J11" s="38">
         <v>2003</v>
       </c>
+      <c r="K11" s="38" t="s">
+        <v>413</v>
+      </c>
       <c r="L11" s="38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -7415,32 +7849,34 @@
         <v>355</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="G12" s="38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="38">
+      <c r="J12" s="38">
         <v>2021</v>
       </c>
+      <c r="K12" s="38" t="s">
+        <v>414</v>
+      </c>
       <c r="L12" s="38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38">
         <v>12</v>
       </c>
@@ -7450,33 +7886,35 @@
       <c r="C13" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>435</v>
+      <c r="D13" s="39" t="s">
+        <v>447</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="G13" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="K13" s="38">
+        <v>442</v>
+      </c>
+      <c r="J13" s="38">
         <v>2017</v>
       </c>
+      <c r="K13" s="38" t="s">
+        <v>415</v>
+      </c>
       <c r="L13" s="38" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38">
         <v>13</v>
       </c>
@@ -7487,68 +7925,72 @@
         <v>364</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="G14" s="38" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="I14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="38">
+        <v>2020</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="51" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50">
         <v>14</v>
       </c>
-      <c r="J14" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="38">
-        <v>2020</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+      <c r="B15" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="38" t="s">
+      <c r="I15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="38">
+      <c r="J15" s="50">
         <v>2022</v>
       </c>
-      <c r="L15" s="38" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38">
         <v>15</v>
       </c>
@@ -7559,32 +8001,34 @@
         <v>364</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="38" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="38">
+      <c r="J16" s="38">
         <v>2018</v>
       </c>
+      <c r="K16" s="38" t="s">
+        <v>418</v>
+      </c>
       <c r="L16" s="38" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <v>16</v>
       </c>
@@ -7595,32 +8039,34 @@
         <v>364</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="38" t="s">
-        <v>12</v>
+        <v>419</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>444</v>
+        <v>14</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="38">
+      <c r="J17" s="38">
         <v>2022</v>
       </c>
+      <c r="K17" s="38" t="s">
+        <v>420</v>
+      </c>
       <c r="L17" s="38" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38">
         <v>17</v>
       </c>
@@ -7628,35 +8074,37 @@
         <v>74</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>369</v>
+        <v>452</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="38" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="38">
+      <c r="J18" s="38">
         <v>2022</v>
       </c>
+      <c r="K18" s="38" t="s">
+        <v>421</v>
+      </c>
       <c r="L18" s="38" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38">
         <v>18</v>
       </c>
@@ -7664,35 +8112,37 @@
         <v>74</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="38" t="s">
+        <v>81</v>
+      </c>
       <c r="G19" s="38" t="s">
-        <v>81</v>
+        <v>456</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>449</v>
+        <v>14</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="38">
+      <c r="J19" s="38">
         <v>2023</v>
       </c>
+      <c r="K19" s="38" t="s">
+        <v>422</v>
+      </c>
       <c r="L19" s="38" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38">
         <v>19</v>
       </c>
@@ -7700,35 +8150,37 @@
         <v>84</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="38"/>
+      <c r="F20" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="G20" s="38" t="s">
-        <v>18</v>
+        <v>459</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>452</v>
+        <v>14</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="38">
+      <c r="J20" s="38">
         <v>2024</v>
       </c>
+      <c r="K20" s="38" t="s">
+        <v>423</v>
+      </c>
       <c r="L20" s="38" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38">
         <v>20</v>
       </c>
@@ -7736,35 +8188,37 @@
         <v>74</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="38"/>
+      <c r="F21" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="G21" s="38" t="s">
-        <v>12</v>
+        <v>462</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="38">
+      <c r="J21" s="38">
         <v>2022</v>
       </c>
+      <c r="K21" s="38" t="s">
+        <v>421</v>
+      </c>
       <c r="L21" s="38" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <v>21</v>
       </c>
@@ -7775,291 +8229,1042 @@
         <v>355</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>456</v>
+        <v>42</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="F22" s="38"/>
+        <v>463</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>425</v>
+      </c>
       <c r="G22" s="38" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>459</v>
+        <v>14</v>
       </c>
       <c r="I22" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="38">
+        <v>2019</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="L22" s="38"/>
+    </row>
+    <row r="23" spans="1:12" s="49" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="48">
+        <v>22</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>465</v>
+      </c>
+      <c r="H23" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="I23" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="38">
+      <c r="J23" s="48">
         <v>2019</v>
       </c>
-      <c r="L22" s="38" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38">
-        <v>22</v>
-      </c>
-      <c r="B23" s="38" t="s">
+      <c r="K23" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="L23" s="48"/>
+    </row>
+    <row r="24" spans="1:12" s="49" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="48">
+        <v>23</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="48">
+        <v>2019</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="L24" s="52"/>
+    </row>
+    <row r="25" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="38">
+        <v>24</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C25" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="38">
+        <v>2019</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="38">
+        <v>25</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="J26" s="38">
+        <v>2023</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="38">
+        <v>26</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="38">
+        <v>2024</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="38">
+        <v>27</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="I23" s="38" t="s">
+      <c r="D28" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="H28" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="38">
-        <v>2019</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38">
-        <v>23</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="C24" s="38" t="s">
+      <c r="I28" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="J28" s="38">
+        <v>2025</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38">
+        <v>28</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="38">
+        <v>2025</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="38">
+        <v>29</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="I24" s="38" t="s">
+      <c r="D30" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="H30" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="38">
-        <v>2019</v>
-      </c>
-      <c r="L24" s="38" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I27" t="s">
-        <v>225</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="I30" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="38">
+        <v>2024</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="9:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="9:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>382</v>
+      </c>
+      <c r="J34" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I28" t="s">
-        <v>230</v>
-      </c>
-      <c r="J28" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I29" t="s">
-        <v>234</v>
-      </c>
-      <c r="J29" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I30" t="s">
-        <v>239</v>
-      </c>
-      <c r="J30" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I31" t="s">
-        <v>243</v>
-      </c>
-      <c r="J31" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I32" t="s">
-        <v>247</v>
-      </c>
-      <c r="J32" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I33" t="s">
-        <v>252</v>
-      </c>
-      <c r="J33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I34" t="s">
-        <v>256</v>
-      </c>
-      <c r="J34" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="35" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J35" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J36" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="37" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J37" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>388</v>
+      </c>
+      <c r="J39" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I39" t="s">
-        <v>384</v>
-      </c>
-      <c r="J39" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="40" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I40" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="J40" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="41" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I41" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J41" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="42" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I42" t="s">
-        <v>388</v>
-      </c>
-      <c r="J42" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="9:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I43" t="s">
-        <v>389</v>
-      </c>
-      <c r="J43" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="44" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I44" t="s">
-        <v>390</v>
-      </c>
-      <c r="J44" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I45"/>
-      <c r="J45"/>
-    </row>
-    <row r="46" spans="9:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I46" t="s">
         <v>391</v>
       </c>
-      <c r="J46"/>
+      <c r="J43"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{F4EF847C-2E5F-9B44-A347-3A85CAFDB180}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABFADAA-8CD8-B54B-B724-E72D604D12F5}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="90.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>590</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>534</v>
+      </c>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="41">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41">
+        <v>3</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>537</v>
+      </c>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41">
+        <v>4</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41">
+        <v>5</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="41">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41">
+        <v>7</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>526</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41">
+        <v>8</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>592</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41">
+        <v>9</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>592</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41">
+        <v>10</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>592</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>533</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41">
+        <v>11</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>593</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="41">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41">
+        <v>13</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>550</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="41">
+        <v>14</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="41">
+        <v>15</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41">
+        <v>16</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="41">
+        <v>17</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>593</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>560</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41">
+        <v>18</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41">
+        <v>19</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41">
+        <v>20</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>569</v>
+      </c>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="41">
+        <v>21</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41">
+        <v>22</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>593</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>575</v>
+      </c>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="41">
+        <v>23</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>593</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>577</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>576</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="41">
+        <v>24</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>579</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41">
+        <v>25</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>583</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>585</v>
+      </c>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41">
+        <v>26</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>586</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>589</v>
+      </c>
+      <c r="G27" s="41"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1" display="https://mahnob-db.eu/hci-tagging/" xr:uid="{3348917A-A175-934D-9EB6-A1FD89895A5A}"/>
+    <hyperlink ref="E13" r:id="rId2" display="https://archive.ics.uci.edu/dataset/462/we" xr:uid="{611257A9-0028-DB4D-95D3-096F887B951C}"/>
+    <hyperlink ref="E14" r:id="rId3" display="https://www.affective-road.org/" xr:uid="{0F781B1D-019D-1040-B0B9-A898E90057B2}"/>
+    <hyperlink ref="E15" r:id="rId4" display="https://sites.google.com/view/ubfc-phys" xr:uid="{D7C314F4-9DF5-1644-A590-8ADCD3DECC8C}"/>
+    <hyperlink ref="E16" r:id="rId5" display="https://github.com/OpenPSD/OpenPSD" xr:uid="{9A713AA0-0EE9-0E4E-BE37-42D8E8E79016}"/>
+    <hyperlink ref="E17" r:id="rId6" display="https://www.uni-ulm.de/en/in/neuroinformat" xr:uid="{C0F14205-6B64-E24E-8B7C-C26B9BBE05C3}"/>
+    <hyperlink ref="E18" r:id="rId7" display="https://www.clas-db.org/" xr:uid="{33E63B68-73E3-5440-A0E5-F624FE03A1D0}"/>
+    <hyperlink ref="E19" r:id="rId8" display="https://www.empatica.com/research/" xr:uid="{BAFC3FAB-5519-D74D-B8E3-23848D8B456A}"/>
+    <hyperlink ref="E20" r:id="rId9" display="https://pupil-labs.com/" xr:uid="{D8DCCA19-20F7-584C-8675-F661FD10AAAD}"/>
+    <hyperlink ref="E21" r:id="rId10" display="https://physionet.org/" xr:uid="{2CFE0402-2AFE-2840-8A4F-AA13C4737097}"/>
+    <hyperlink ref="E22" r:id="rId11" display="https://toadstool-dataset.github.io/" xr:uid="{447B8E87-0ED3-314F-B3C1-6AEFA61013D5}"/>
+    <hyperlink ref="E23" r:id="rId12" display="https://decaf-dataset.github.io/" xr:uid="{8FDF065A-C0FA-7844-A799-893F292DA54D}"/>
+    <hyperlink ref="E24" r:id="rId13" display="https://bcmi.sjtu.edu.cn/home/seed/" xr:uid="{0E5F5792-0359-D64F-9D68-90D7CF9BF870}"/>
+    <hyperlink ref="E25" r:id="rId14" display="https://mped.github.io/" xr:uid="{E47177D4-0449-5A4F-8C23-FF503DBEB4C8}"/>
+    <hyperlink ref="E26" r:id="rId15" display="https://figshare.com/articles/dataset/Data_Descriptor_EEG_and_physiological_signals_data_from_university_students_during_interaction_with_the_Neurohumanities_Lab_s_partially_immersive_space_Raw_EEG_Data_Data_Descriptor_EEG_and_physiological_signals_data_from_university_students/24777084" xr:uid="{92473F30-1EAE-FF4E-ABF2-C24DF9141B1F}"/>
+    <hyperlink ref="E27" r:id="rId16" display="https://github.com/WJMatthew/WESAD" xr:uid="{4522A168-A3B6-9B46-AEDE-9C437E751DBF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EA22F2-2E17-6F42-B255-2D4921B72C2D}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J53"/>
@@ -8184,7 +9389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2468070-DB6D-7C4A-A18A-C88D17BBDB45}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K9"/>
@@ -8290,7 +9495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238C1CD2-6876-6B48-9C27-2B0BA157E631}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J2"/>
@@ -8381,7 +9586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396DBC14-E2A1-0E4B-A9EE-9565F68A069C}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
@@ -8394,7 +9599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AECCAE-BEC9-B74B-B80E-6BEF6A128913}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:B177"/>
@@ -8824,7 +10029,7 @@
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="21" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8832,7 +10037,7 @@
       <c r="B99"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="22" t="s">
         <v>298</v>
       </c>
     </row>
@@ -8840,7 +10045,7 @@
       <c r="B101"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="23" t="s">
         <v>299</v>
       </c>
     </row>
@@ -8848,7 +10053,7 @@
       <c r="B103"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="25" t="s">
+      <c r="B104" s="24" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8856,7 +10061,7 @@
       <c r="B105"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="23" t="s">
+      <c r="B106" s="22" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8867,7 +10072,7 @@
       <c r="B108"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="25" t="s">
         <v>302</v>
       </c>
     </row>
@@ -8875,7 +10080,7 @@
       <c r="B110"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="22" t="s">
         <v>303</v>
       </c>
     </row>
@@ -8883,7 +10088,7 @@
       <c r="B112"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="22" t="s">
         <v>304</v>
       </c>
     </row>
@@ -8891,7 +10096,7 @@
       <c r="B114"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="22" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8899,7 +10104,7 @@
       <c r="B116"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="27" t="s">
+      <c r="B117" s="26" t="s">
         <v>306</v>
       </c>
     </row>
@@ -8907,7 +10112,7 @@
       <c r="B118"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" s="23" t="s">
+      <c r="B119" s="22" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8915,7 +10120,7 @@
       <c r="B120"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" s="28" t="s">
+      <c r="B121" s="27" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8923,7 +10128,7 @@
       <c r="B122"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123" s="23" t="s">
+      <c r="B123" s="22" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8934,7 +10139,7 @@
       <c r="B125"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="28" t="s">
         <v>310</v>
       </c>
     </row>
@@ -8942,7 +10147,7 @@
       <c r="B127"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B128" s="23" t="s">
+      <c r="B128" s="22" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8950,7 +10155,7 @@
       <c r="B129"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="22" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8967,12 +10172,12 @@
       <c r="B134"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="29" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="30" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8980,7 +10185,7 @@
       <c r="B137"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="22" t="s">
         <v>315</v>
       </c>
     </row>
@@ -8997,7 +10202,7 @@
       <c r="B142"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B143" s="25" t="s">
+      <c r="B143" s="24" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9005,7 +10210,7 @@
       <c r="B144"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="22" t="s">
         <v>317</v>
       </c>
     </row>
@@ -9013,7 +10218,7 @@
       <c r="B146"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="22" t="s">
         <v>318</v>
       </c>
     </row>
@@ -9021,7 +10226,7 @@
       <c r="B148"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B149" s="25" t="s">
+      <c r="B149" s="24" t="s">
         <v>319</v>
       </c>
     </row>
@@ -9029,7 +10234,7 @@
       <c r="B150"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B151" s="23" t="s">
+      <c r="B151" s="22" t="s">
         <v>320</v>
       </c>
     </row>
@@ -9040,7 +10245,7 @@
       <c r="B153"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B154" s="25" t="s">
+      <c r="B154" s="24" t="s">
         <v>321</v>
       </c>
     </row>
@@ -9048,112 +10253,112 @@
       <c r="B155"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B156" s="23" t="s">
+      <c r="B156" s="22" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B157" s="23" t="s">
+      <c r="B157" s="22" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B158" s="23" t="s">
+      <c r="B158" s="22" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B159" s="23" t="s">
+      <c r="B159" s="22" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B160" s="23" t="s">
+      <c r="B160" s="22" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161" s="23" t="s">
+      <c r="B161" s="22" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" s="23" t="s">
+      <c r="B162" s="22" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B163" s="23" t="s">
+      <c r="B163" s="22" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B164" s="23" t="s">
+      <c r="B164" s="22" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B165" s="23" t="s">
+      <c r="B165" s="22" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B166" s="23" t="s">
+      <c r="B166" s="22" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="22" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B168" s="23" t="s">
+      <c r="B168" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B169" s="23" t="s">
+      <c r="B169" s="22" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B170" s="23" t="s">
+      <c r="B170" s="22" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B171" s="23" t="s">
+      <c r="B171" s="22" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B172" s="23" t="s">
+      <c r="B172" s="22" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B173" s="23" t="s">
+      <c r="B173" s="22" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B174" s="23" t="s">
+      <c r="B174" s="22" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B175" s="23" t="s">
+      <c r="B175" s="22" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B176" s="23" t="s">
+      <c r="B176" s="22" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B177" s="23" t="s">
+      <c r="B177" s="22" t="s">
         <v>343</v>
       </c>
     </row>

--- a/papers/Paper_List.xlsx
+++ b/papers/Paper_List.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/GitHub/MX-Project/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2B130B-AC37-8C40-AE89-F3A1F9310201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B09426-235C-444E-9248-398E2E9B2D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" firstSheet="1" activeTab="2" xr2:uid="{27A2D691-8540-F848-AE1A-DA31E7E2D838}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" firstSheet="2" activeTab="3" xr2:uid="{27A2D691-8540-F848-AE1A-DA31E7E2D838}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference List" sheetId="1" r:id="rId1"/>
     <sheet name="Literature Review" sheetId="7" r:id="rId2"/>
     <sheet name="Emotions_Mental_Cognitve State" sheetId="10" r:id="rId3"/>
-    <sheet name="Signals" sheetId="11" r:id="rId4"/>
-    <sheet name="Data_Processing_Feature_extract" sheetId="12" r:id="rId5"/>
-    <sheet name="Model_Selection" sheetId="14" r:id="rId6"/>
-    <sheet name="Features_table" sheetId="9" r:id="rId7"/>
-    <sheet name="Public Data Sources" sheetId="8" r:id="rId8"/>
-    <sheet name="Question" sheetId="3" r:id="rId9"/>
+    <sheet name=" synthesis table" sheetId="16" r:id="rId4"/>
+    <sheet name="Signals" sheetId="11" r:id="rId5"/>
+    <sheet name="Data_Processing_Feature_extract" sheetId="12" r:id="rId6"/>
+    <sheet name="Model_Selection" sheetId="14" r:id="rId7"/>
+    <sheet name="Features_table" sheetId="9" r:id="rId8"/>
+    <sheet name="Public Data Sources" sheetId="8" r:id="rId9"/>
+    <sheet name="Question" sheetId="3" r:id="rId10"/>
+    <sheet name=" synthesis table_bk" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Features_table!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Features_table!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Literature Review'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reference List'!$A$1:$M$35</definedName>
   </definedNames>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="1333">
   <si>
     <t>No.</t>
   </si>
@@ -8041,12 +8043,546 @@
   <si>
     <t>4. Feature Extraction for Time-Series Physiological Signals</t>
   </si>
+  <si>
+    <t>Argument</t>
+  </si>
+  <si>
+    <t>Source 1</t>
+  </si>
+  <si>
+    <t>Source 2</t>
+  </si>
+  <si>
+    <t>How are attention, impasse, and Aha! moment defined and identified?</t>
+  </si>
+  <si>
+    <t>Subargument</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Aha</t>
+  </si>
+  <si>
+    <t>Source 3</t>
+  </si>
+  <si>
+    <t>Source 4</t>
+  </si>
+  <si>
+    <t>Source 5</t>
+  </si>
+  <si>
+    <t>What are the physiological signatures of these states?</t>
+  </si>
+  <si>
+    <t>Can AI models accurately classify these cognitive states from multimodal signals?</t>
+  </si>
+  <si>
+    <t>What features are most predictive in classification?</t>
+  </si>
+  <si>
+    <t>What approaches and results have been reported?</t>
+  </si>
+  <si>
+    <t>What are the current methodological and technical gaps?</t>
+  </si>
+  <si>
+    <t>EEG: Increased theta (4–7 Hz) and beta (13–30 Hz) activity, especially in the frontal and parietal regions, correlate with attentional control. (Pavlov, 2023)</t>
+  </si>
+  <si>
+    <t>Pupil Dilation: Pupil size increases linearly with attentional demand and task difficulty. (Rozado &amp; Dünser, 2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interaction: EEG and pupillometry jointly improve detection of attention-related cognitive workload. (Rozado &amp; Dünser, 2015) </t>
+  </si>
+  <si>
+    <t>EEG: Insight is preceded by alpha suppression, followed by a gamma-band burst (30–100 Hz) in the right anterior superior temporal gyrus (rSTG), reflecting momentary integration of previously unconnected elements. (Kounios &amp; Beeman, 2009)</t>
+  </si>
+  <si>
+    <t>Identified using EEG frontal theta and beta activity, often linked to attentional control networks. [Pavlov, 2023](https://scispace.com/papers/eeg-and-pupillometric-signatures-of-working-memory-overload-2zehc25k?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Defined as a mental block where progress halts during problem-solving, requiring cognitive restructuring. [Kosachenko et al., 2023](https://scispace.com/papers/eeg-and-pupillometric-signatures-of-working-memory-overload-2v55a7p3?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Identified by increased frontal midline theta and alpha synchronization during failure to progress. [Kosachenko et al., 2023](https://scispace.com/papers/eeg-and-pupillometric-signatures-of-working-memory-overload-2v55a7p3?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Pupil and EEG markers show triphasic response during overload, interpreted as impasse onset. [Kosachenko et al., 2023](https://scispace.com/papers/eeg-and-pupillometric-signatures-of-working-memory-overload-2v55a7p3?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Aha moment</t>
+  </si>
+  <si>
+    <t>Defined as a sudden, often unexpected, restructuring of mental representation leading to solution. [Kounios &amp; Beeman, 2009](https://scispace.com/papers/the-aha-moment-the-cognitive-neuroscience-of-insight-1w99vntxdf?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Identified by a burst of gamma-band EEG activity in right anterior superior temporal gyrus (rSTG). [Kounios &amp; Beeman, 2009](https://scispace.com/papers/the-aha-moment-the-cognitive-neuroscience-of-insight-1w99vntxdf?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Pupil dilation and GSR spikes occur immediately before or during insight. [Kounios &amp; Beeman, 2009](https://scispace.com/papers/the-aha-moment-the-cognitive-neuroscience-of-insight-1w99vntxdf?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Defined as the selective allocation of cognitive resources to relevant stimuli or tasks; includes sustained, selective, and divided attention. [Rozado &amp; D√ºnser, 2015](https://scispace.com/papers/combining-eeg-with-pupillometry-to-improve-cognitive-4znidak6co?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Measured via pupil dilation changes with task difficulty; higher dilation reflects more effort. [Rozado &amp; D√ºnser, 2015](https://scispace.com/papers/combining-eeg-with-pupillometry-to-improve-cognitive-4znidak6co?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>EEG: Elevated frontal midline theta and increased alpha synchronization, indicating internal focus and effort to suppress distractions. (Kosachenko et al., 2023)</t>
+  </si>
+  <si>
+    <t>Combined Responses: A triphasic pattern (initial increase, plateau, and sharp drop) in both theta power and pupil size suggests that systems attempt to reset or release effort when an impasse is reached.(Kosachenko et al., 2023)</t>
+  </si>
+  <si>
+    <t>Attention classification from EEG</t>
+  </si>
+  <si>
+    <t>EEG-based attention classification achieves high accuracy using ML models such as XGBoost with &gt;98% average accuracy. [Purnamasari et al., 2023](https://scispace.com/papers/application-of-machine-learning-algorithm-for-mental-state-2b12q5kf?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Deep learning models (CNN-RNN) improve attention detection from EEG and pupil signals. [Sun et al., 2025](https://scispace.com/papers/attention-detection-using-eeg-signals-and-machine-learning-a-3glkj1lsbid7?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Joint EEG-pupil models show superior real-time workload prediction. [Rozado &amp; D√ºnser, 2015](https://scispace.com/papers/combining-eeg-with-pupillometry-to-improve-cognitive-4znidak6co?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Emotion/Impasse classification</t>
+  </si>
+  <si>
+    <t>Deep CNN-RNNs classify emotional brain states (including cognitive frustration) from EEG with high accuracy. [Tyagi et al., 2024](https://scispace.com/papers/eeg-brain-emotion-classification-using-ai-hopavwy0tgq5?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Eye state classification (as a proxy for internal state) reaches 99.8% accuracy using FFBPNN on normalized EEG. [Jana &amp; Agrawal, 2018](https://scispace.com/papers/an-artificial-intelligence-method-for-discriminating-eye-11et2wavwn?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Multimodal fusion potential</t>
+  </si>
+  <si>
+    <t>End-to-end hybrid deep learning models combining CNN and residual-inception networks outperform others in EEG classification tasks. [Wu et al., 2021](https://scispace.com/papers/automatic-classification-of-eeg-signals-via-deep-learning-3vt496weki?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>Attention and workload classification improves significantly with fused EEG + pupil + GSR inputs. [Rozado &amp; D√ºnser, 2015](https://scispace.com/papers/combining-eeg-with-pupillometry-to-improve-cognitive-4znidak6co?utm_source=chatgpt)</t>
+  </si>
+  <si>
+    <t>How are attention impasse and Aha! moment defined and identified?</t>
+  </si>
+  <si>
+    <t>Attention Definition</t>
+  </si>
+  <si>
+    <t>Impasse Definition</t>
+  </si>
+  <si>
+    <t>Impasse detection involves identifying periods of sustained cognitive effort followed by strategy reset patterns in physiological signals. (Research Findings)</t>
+  </si>
+  <si>
+    <t>Aha! Moment Definition</t>
+  </si>
+  <si>
+    <t>Aha moments result from unconscious processing that pieces together loosely connected information before sudden conscious emergence. (IntechOpen)</t>
+  </si>
+  <si>
+    <t>Behavioral Identification Methods</t>
+  </si>
+  <si>
+    <t>Attention - EEG Signatures</t>
+  </si>
+  <si>
+    <t>Attention - Pupillometry</t>
+  </si>
+  <si>
+    <t>Impasse - Physiological Patterns</t>
+  </si>
+  <si>
+    <t>Impasse involves sustained physiological arousal followed by system reset when solution strategies fail. (Physiological Research)</t>
+  </si>
+  <si>
+    <t>Autonomic responses during impasse show elevated sympathetic activity until problem restructuring occurs. (Autonomic Studies)</t>
+  </si>
+  <si>
+    <t>Aha! Moment - Neural Signatures</t>
+  </si>
+  <si>
+    <t>Multimodal Integration</t>
+  </si>
+  <si>
+    <t>Integration of neural and autonomic signals provides comprehensive understanding of cognitive state mechanisms. (Literature Consensus)</t>
+  </si>
+  <si>
+    <t>Cross-modal validation strengthens reliability of cognitive state classification systems across different signal types. (Research Findings)</t>
+  </si>
+  <si>
+    <t>Can AI models accurately classify these cognitive states from multimodal signals? What features are most predictive?</t>
+  </si>
+  <si>
+    <t>Classification Accuracy</t>
+  </si>
+  <si>
+    <t>Multimodal approaches show enhanced accuracy compared to single-modality classification for cognitive state detection. (Research Consensus)</t>
+  </si>
+  <si>
+    <t>Most Predictive Features</t>
+  </si>
+  <si>
+    <t>Spectral power features from EEG frequency bands provide robust classification markers for different cognitive states. (Technical Literature)</t>
+  </si>
+  <si>
+    <t>Combined features from multiple modalities provide more robust classification than individual signal characteristics. (Multimodal Research)</t>
+  </si>
+  <si>
+    <t>Feature Engineering</t>
+  </si>
+  <si>
+    <t>Time-frequency analysis provides optimal representation for cognitive state classification from EEG signals. (Signal Processing Literature)</t>
+  </si>
+  <si>
+    <t>Spectral features from EEG and temporal features from pupillometry provide complementary information for classification. (Research Findings)</t>
+  </si>
+  <si>
+    <t>Feature fusion strategies determine effectiveness of combined signal processing for cognitive state detection. (Technical Studies)</t>
+  </si>
+  <si>
+    <t>Machine Learning Approaches</t>
+  </si>
+  <si>
+    <t>Random Forest and ensemble methods provide robust classification across different experimental conditions. (Machine Learning Literature)</t>
+  </si>
+  <si>
+    <t>EEG-Based Approaches</t>
+  </si>
+  <si>
+    <t>Real-time EEG processing enables online cognitive state monitoring with acceptable accuracy. (Technical Applications)</t>
+  </si>
+  <si>
+    <t>Pupillometry Approaches</t>
+  </si>
+  <si>
+    <t>Pupil diameter changes provide reliable indicators of cognitive load with high temporal resolution. (Pupillometry Research)</t>
+  </si>
+  <si>
+    <t>Real-time pupil tracking enables continuous monitoring of cognitive effort and attention. (Applied Research)</t>
+  </si>
+  <si>
+    <t>Multimodal Integration Results</t>
+  </si>
+  <si>
+    <t>Ensemble methods combining different modalities show promise but require validation across conditions. (Research Findings)</t>
+  </si>
+  <si>
+    <t>Cross-modal validation helps identify optimal combinations of physiological measures for cognitive state detection. (Technical Studies)</t>
+  </si>
+  <si>
+    <t>Validation and Performance</t>
+  </si>
+  <si>
+    <t>Cross-subject validation reveals challenges in generalizing cognitive state models across individuals. (Validation Studies)</t>
+  </si>
+  <si>
+    <t>Real-time classification requirements pose challenges for complex multimodal processing systems. (Technical Constraints)</t>
+  </si>
+  <si>
+    <t>Laboratory-controlled conditions may not translate to real-world cognitive state detection applications. (Ecological Validity)</t>
+  </si>
+  <si>
+    <t>Temporal resolution and processing delays affect practical deployment of cognitive state classification systems. (Implementation Studies)</t>
+  </si>
+  <si>
+    <t>Synchronization Challenges</t>
+  </si>
+  <si>
+    <t>Different sampling rates across modalities require sophisticated synchronization protocols. (Technical Literature)</t>
+  </si>
+  <si>
+    <t>Hardware and software integration challenges limit real-time multimodal signal processing. (Implementation Issues)</t>
+  </si>
+  <si>
+    <t>Standardization of synchronization methods across different equipment vendors remains lacking. (Technical Gaps)</t>
+  </si>
+  <si>
+    <t>Individual Differences</t>
+  </si>
+  <si>
+    <t>Personalization and adaptation strategies are needed for robust individual-specific cognitive state detection. (Adaptive Systems)</t>
+  </si>
+  <si>
+    <t>Cross-cultural and demographic validation of cognitive state classification models is limited. (Validation Gaps)</t>
+  </si>
+  <si>
+    <t>Individual calibration procedures increase system complexity but may be necessary for accuracy. (Methodological Requirements)</t>
+  </si>
+  <si>
+    <t>Ecological Validity</t>
+  </si>
+  <si>
+    <t>Laboratory-controlled conditions may not generalize to real-world cognitive state detection scenarios. (External Validity)</t>
+  </si>
+  <si>
+    <t>Artificial task environments may not capture naturalistic cognitive state patterns. (Ecological Psychology)</t>
+  </si>
+  <si>
+    <t>Long-term deployment and longitudinal validation of cognitive state classification systems is lacking. (Temporal Validity)</t>
+  </si>
+  <si>
+    <t>Integration with natural user interfaces and workflows remains challenging. (Application Gaps)</t>
+  </si>
+  <si>
+    <t>Technical Limitations</t>
+  </si>
+  <si>
+    <t>Real-time processing requirements limit complexity of deployable classification algorithms. (Computational Constraints)</t>
+  </si>
+  <si>
+    <t>Battery life and wireless transmission constraints affect continuous monitoring applications. (Hardware Limitations)</t>
+  </si>
+  <si>
+    <t>Signal-to-noise ratio and artifact removal remain challenging for mobile EEG and physiological monitoring. (Signal Quality)</t>
+  </si>
+  <si>
+    <t>Calibration and sensor placement consistency affect reliability across sessions and users. (Technical Reliability)</t>
+  </si>
+  <si>
+    <t>Cost and complexity of multimodal sensing systems limit widespread deployment. (Economic Constraints)</t>
+  </si>
+  <si>
+    <t>Methodological Standards</t>
+  </si>
+  <si>
+    <t>Lack of standardized protocols for cognitive state elicitation and validation across studies. (Methodological Standardization)</t>
+  </si>
+  <si>
+    <t>Inconsistent feature extraction and classification evaluation metrics across research. (Evaluation Standards)</t>
+  </si>
+  <si>
+    <t>Need for consensus on ground truth labeling methods for cognitive states. (Validation Standards)</t>
+  </si>
+  <si>
+    <t>Insufficient reporting of negative results and failed replication attempts. (Publication Bias)</t>
+  </si>
+  <si>
+    <t>Attention involves selective focus on specific stimuli while filtering out irrelevant information  characterized by enhanced neural activity in frontal and parietal regions. (Cognitive Neuroscience Literature)</t>
+  </si>
+  <si>
+    <t>Cognitive load and attentional demand can be measured through physiological markers including EEG frequency bands and pupil responses. (Rozado &amp; Dünser  2015)</t>
+  </si>
+  <si>
+    <t>Attention states show increased theta (4–7 Hz) and beta (13–30 Hz) activity especially in frontal and parietal regions during attentional control tasks. (Pavlov  2023)</t>
+  </si>
+  <si>
+    <t>Attentional processes involve sustained concentration and working memory maintenance measurable through multimodal physiological signals. (bioRxiv  2024)</t>
+  </si>
+  <si>
+    <t>Attention classification involves detecting cognitive workload states through neural and autonomic signal patterns. (Frontiers 2022)</t>
+  </si>
+  <si>
+    <t>Impasse occurs when problem solvers become stuck and cannot retrieve or generate a solution despite having explored available possibilities. (Wikipedia  2025)</t>
+  </si>
+  <si>
+    <t>An impasse represents a cognitive bottleneck where current problem-solving strategies fail  requiring restructuring of the problem representation. (Kosachenko et al. 2023)</t>
+  </si>
+  <si>
+    <t>Impasse states are characterized by sustained cognitive effort without progress  leading to eventual strategy abandonment or problem restructuring. (Cognitive Psychology Literature)</t>
+  </si>
+  <si>
+    <t>The impasse phase involves elevated frontal midline theta and increased alpha synchronization  indicating internal focus and effort to suppress distractions. (Kosachenko et al. 2023)</t>
+  </si>
+  <si>
+    <t>Insight is a sudden comprehension that solves a problem reinterprets a situation explains a joke  or resolves an ambiguous percept  called the Aha! moment. (Kounios &amp; Beeman 2009)</t>
+  </si>
+  <si>
+    <t>Defined as sudden realization  insight  recognition or comprehension  the aha! moment involves emergent understanding. (Scientific American  2025)</t>
+  </si>
+  <si>
+    <t>Insight is a sudden conscious change in a person's representation of a stimulus situation event or problem. (IntechOpen)</t>
+  </si>
+  <si>
+    <t>Increased theta (4–7 Hz) and beta (13–30 Hz) activity in frontal and parietal regions correlate with attentional control. (Pavlov 2023)</t>
+  </si>
+  <si>
+    <t>Pupil size increases linearly with attentional demand and task difficulty providing a direct measure of cognitive effort. (Rozado &amp; Dünser 2015)</t>
+  </si>
+  <si>
+    <t>Percentage change in pupil size (PCPS) is the most reliable biomarker for assessing cognitive workload compared to other physiological measures. (bioRxiv 2024)</t>
+  </si>
+  <si>
+    <t>Pupillometry tracks real-time dynamics linked to arousal and attention  including neural circuits from the locus coeruleus. (Literature Review)</t>
+  </si>
+  <si>
+    <t>Cognitive pupillometry measures pupil size to investigate attention mental effort and working memory processes. (PMC 2023)</t>
+  </si>
+  <si>
+    <t>EEG signals corresponding to attention can be classified using machine learning with accuracies up to 89% with beta band showing stronger power during concentration. (Scientific Reports 2022)</t>
+  </si>
+  <si>
+    <t>Alpha band power decreases during attention tasks while beta band activity increases providing clear neural signatures. (Scientific Reports  2022)</t>
+  </si>
+  <si>
+    <t>Combined EEG and pupillometry jointly improve detection of attention-related cognitive workload beyond single modalities. (Rozado &amp; Dünser 2015)</t>
+  </si>
+  <si>
+    <t>Machine learning approaches achieve up to 89% accuracy in classifying attention and distraction states from EEG signals. (Scientific Reports 2022)</t>
+  </si>
+  <si>
+    <t>Percentage change in pupil size (PCPS) is the most reliable biomarker for assessing cognitive states compared to EEG and fNIRS. (bioRxiv 2024)</t>
+  </si>
+  <si>
+    <t>Robust local mean decomposition (R-LMD) effectively decomposes EEG signals for feature extraction. (Scientific Reports 2024)</t>
+  </si>
+  <si>
+    <t>Support Vector Machines (SVM) and Neural Networks show superior performance for EEG-based cognitive state classification. (ACM 2022)</t>
+  </si>
+  <si>
+    <t>EEG classification achieves up to 89% accuracy for attention vs. distraction states using frequency band features. (Scientific Reports 2022)</t>
+  </si>
+  <si>
+    <t>Limited availability of large-scale standardized datasets for cognitive state classification. (Data Availability)</t>
+  </si>
+  <si>
+    <t>Environmental factors (lighting noise movement) affect signal quality in real-world applications. (Environmental Validity)</t>
+  </si>
+  <si>
+    <t>Physiological responses vary significantly across individuals  limiting model generalization. (Research Limitations)</t>
+  </si>
+  <si>
+    <t>Age gender  cognitive ability and baseline physiological patterns affect classification accuracy. (Individual Differences Research)</t>
+  </si>
+  <si>
+    <t>Jitter and latency issues in synchronized multimodal recordings with EEG affect data quality and analysis. (PMC 2024)</t>
+  </si>
+  <si>
+    <t>Performance varies significantly with experimental conditions task complexity and individual differences. (Research Observations)</t>
+  </si>
+  <si>
+    <t>Temporal alignment of different physiological signals remains a significant technical challenge for multimodal analysis. (PMC 2024)</t>
+  </si>
+  <si>
+    <t>Combined EEG and pupillometry does not always significantly improve performance over best single modality. (ACM 2022)</t>
+  </si>
+  <si>
+    <t>Multimodal feature fusion requires careful synchronization and alignment of different signal types. (PMC 2024)</t>
+  </si>
+  <si>
+    <t>Feature selection across modalities is crucial for effective multimodal cognitive state classification. (ResearchGate 2015)</t>
+  </si>
+  <si>
+    <t>Percentage change in pupil size outperforms other physiological measures for cognitive state assessment. (bioRxiv 2024)</t>
+  </si>
+  <si>
+    <t>Combined pupillometry and eye-tracking features improve cognitive workload assessment. (PMC 2014)</t>
+  </si>
+  <si>
+    <t>Eye gaze analysis including fixation patterns and saccade characteristics correlate with cognitive states. (bioRxiv 2024)</t>
+  </si>
+  <si>
+    <t>Theta alpha beta and gamma band analysis provides distinct signatures for different cognitive states. (Multiple EEG Studies)</t>
+  </si>
+  <si>
+    <t>Deep learning approaches with CNN and RNN architectures show improved performance over traditional methods. (Scientific Reports 2025)</t>
+  </si>
+  <si>
+    <t>Feature optimization using evolutionary algorithms enhances EEG-based cognitive state classification. (Scientific Reports 2024)</t>
+  </si>
+  <si>
+    <t>Multimodal signal features (EEG EDA ECG EOG eye movements) provide enhanced cognitive load classification. (ResearchGate 2015)</t>
+  </si>
+  <si>
+    <t>Combined eye gaze and EEG data classification using multiple ML models (k-NN NB RF SVM NNM) shows effective cognitive workload detection. (ACM 2022)</t>
+  </si>
+  <si>
+    <t>Beta band power in EEG shows strongest correlation with attention states while theta and gamma bands correlate with impasse and insight. (Multiple Studies)</t>
+  </si>
+  <si>
+    <t>Convolutional and recurrent neural networks show high performance in EEG-based cognitive state detection. (Scientific Reports 2025)</t>
+  </si>
+  <si>
+    <t>Attention-based deep learning models enhance EEG signal classification performance for cognitive states. (IOPscience 2023)</t>
+  </si>
+  <si>
+    <t>k-Nearest Neighbor and Naive Bayes provide baseline performance for multimodal cognitive state classification. (ACM 2022)</t>
+  </si>
+  <si>
+    <t>Binary arithmetic optimization (BAO) algorithm helps optimize feature selection from multimodal physiological signals. (Scientific Reports 2024)</t>
+  </si>
+  <si>
+    <t>Eye gaze patterns and pupil diameter features outperform EEG alone in some cognitive workload detection tasks. (ACM 2022)</t>
+  </si>
+  <si>
+    <t>Elevated frontal midline theta and increased alpha synchronization indicate internal focus and effort to suppress distractions during impasse. (Kosachenko et al. 2023)</t>
+  </si>
+  <si>
+    <t>Frontal cortex activity increases during problem-solving impasses reflecting cognitive effort and resource allocation. (Neuroscience Literature)</t>
+  </si>
+  <si>
+    <t>Cognitive load stimulates measurable neural activity patterns with EEG providing reliable markers for attention detection. (Scientific Reports 2024)</t>
+  </si>
+  <si>
+    <t>Attention states show enhanced neural activity in specific frequency bands that can be reliably detected through EEG classification systems. (PMC 2024)</t>
+  </si>
+  <si>
+    <t>Sympathetic nervous system dilates pupils during attention tasks via alpha-1 adrenergic receptors providing autonomic correlation. (Research Findings)</t>
+  </si>
+  <si>
+    <t>Aha moments show distinctive gamma-band activity reflecting sudden solution integration and neural binding processes. (PMC 2018)</t>
+  </si>
+  <si>
+    <t>A triphasic pattern (initial increase plateau sharp drop) in theta power and pupil size suggests system reset when impasse is reached. (Kosachenko et al. 2023)</t>
+  </si>
+  <si>
+    <t>Attention is identified through performance measures including reaction time accuracy and sustained performance on cognitive tasks. (Experimental Psychology)</t>
+  </si>
+  <si>
+    <t>Impasse identification involves detecting periods where problem-solving progress ceases despite continued effort often measured through think-aloud protocols. (Problem-Solving Research)</t>
+  </si>
+  <si>
+    <t>Aha moments are identified through self-reports of sudden understanding often accompanied by affective responses and confidence in solution correctness. (Kounios &amp; Beeman 2009)</t>
+  </si>
+  <si>
+    <t>Behavioral markers include solution time patterns with insight solutions showing sudden emergence versus gradual analytical progress. (ScienceDirect 2020)</t>
+  </si>
+  <si>
+    <t>Eye-tracking patterns including fixation duration and saccade patterns can differentiate between cognitive states during problem-solving. (bioRxiv 2024)</t>
+  </si>
+  <si>
+    <t>Right hemisphere activation particularly in temporal regions characterizes insight solutions versus analytical problem-solving. (Cognitive Neuroscience)</t>
+  </si>
+  <si>
+    <t>Alpha suppression before insight reflects preparation for solution breakthrough followed by gamma synchronization. (Research Findings)</t>
+  </si>
+  <si>
+    <t>Ultra-high-field fMRI reveals specific neural correlates of the Aha moment in temporal and frontal regions. (PMC 2018)</t>
+  </si>
+  <si>
+    <t>Feature selection and ensemble methods improve classification performance across different cognitive load levels. (Scientific Reports 2024)</t>
+  </si>
+  <si>
+    <t>Synchronization-based fusion of EEG and eye blink signals enhances decoding accuracy for cognitive tasks. (Scientific Reports 2024)</t>
+  </si>
+  <si>
+    <t>Deep learning models outperform traditional machine learning for EEG signal classification of cognitive states. (Scientific Reports 2025)</t>
+  </si>
+  <si>
+    <t>Insight is preceded by alpha suppression followed by gamma-band burst (30–100 Hz) in right anterior superior temporal gyrus (rSTG). (Kounios &amp; Beeman 2009)</t>
+  </si>
+  <si>
+    <t>Insight Moment Defination</t>
+  </si>
+  <si>
+    <t>For example, Salvi et al. showed that people blink and move their eyes differently prior to solving by
+insight versus solving analytically. (Salvi C, Bricolo E, Kounios J,
+Bowden E, Beeman M. Insight
+solutions are correct more often than
+analytic solutions. Thinking and
+Reasoning. 2016;22(4):443-460. DOI:
+10.1080/13546783.2016.1141798)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="65" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8494,8 +9030,47 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF741B47"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8532,8 +9107,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -8556,12 +9137,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8804,6 +9422,49 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11715,12 +12376,1863 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AECCAE-BEC9-B74B-B80E-6BEF6A128913}">
+  <sheetPr codeName="Sheet6">
+    <tabColor theme="0" tint="-0.14999847407452621"/>
+  </sheetPr>
+  <dimension ref="A1:F332"/>
+  <sheetViews>
+    <sheetView zoomScale="89" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B134"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B143" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B150"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B151" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B152"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B154" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B156" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B157" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B158" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B159" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B160" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B161" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B163" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B164" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B165" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B166" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B167" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B168" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B169" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B170" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B171" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B172" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B173" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B174" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B175" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B176" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B177" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B180" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="C180" s="65" t="s">
+        <v>684</v>
+      </c>
+      <c r="D180" s="65" t="s">
+        <v>733</v>
+      </c>
+      <c r="E180" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="F180"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" s="65" t="s">
+        <v>781</v>
+      </c>
+      <c r="D181" t="s">
+        <v>782</v>
+      </c>
+      <c r="E181" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="F181"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182" s="65" t="s">
+        <v>783</v>
+      </c>
+      <c r="D182" t="s">
+        <v>784</v>
+      </c>
+      <c r="E182" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="F182"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183" s="65" t="s">
+        <v>785</v>
+      </c>
+      <c r="D183" t="s">
+        <v>786</v>
+      </c>
+      <c r="E183" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="F183"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184" s="65" t="s">
+        <v>787</v>
+      </c>
+      <c r="D184" t="s">
+        <v>788</v>
+      </c>
+      <c r="E184" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="F184"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185" s="65" t="s">
+        <v>789</v>
+      </c>
+      <c r="D185" t="s">
+        <v>790</v>
+      </c>
+      <c r="E185" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="F185"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="D186" t="s">
+        <v>792</v>
+      </c>
+      <c r="E186" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="F186"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>7</v>
+      </c>
+      <c r="C187" s="65" t="s">
+        <v>793</v>
+      </c>
+      <c r="D187" t="s">
+        <v>794</v>
+      </c>
+      <c r="E187" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="F187"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B188"/>
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B190"/>
+      <c r="C190"/>
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
+        <v>795</v>
+      </c>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B192"/>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B193"/>
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B194"/>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B195" s="64" t="s">
+        <v>796</v>
+      </c>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B196"/>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B197" s="64" t="s">
+        <v>797</v>
+      </c>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B198"/>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B200" t="s">
+        <v>798</v>
+      </c>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B202" s="65" t="s">
+        <v>799</v>
+      </c>
+      <c r="C202" s="65" t="s">
+        <v>800</v>
+      </c>
+      <c r="D202" s="65" t="s">
+        <v>801</v>
+      </c>
+      <c r="E202" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="F202"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B203" s="65" t="s">
+        <v>802</v>
+      </c>
+      <c r="C203" t="s">
+        <v>803</v>
+      </c>
+      <c r="D203" t="s">
+        <v>804</v>
+      </c>
+      <c r="E203" s="66" t="s">
+        <v>805</v>
+      </c>
+      <c r="F203"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B204"/>
+      <c r="C204" t="s">
+        <v>806</v>
+      </c>
+      <c r="D204" t="s">
+        <v>807</v>
+      </c>
+      <c r="E204" s="66" t="s">
+        <v>808</v>
+      </c>
+      <c r="F204"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B205" s="65" t="s">
+        <v>809</v>
+      </c>
+      <c r="C205" t="s">
+        <v>810</v>
+      </c>
+      <c r="D205" t="s">
+        <v>811</v>
+      </c>
+      <c r="E205" s="66" t="s">
+        <v>812</v>
+      </c>
+      <c r="F205"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B206"/>
+      <c r="C206" t="s">
+        <v>813</v>
+      </c>
+      <c r="D206" t="s">
+        <v>814</v>
+      </c>
+      <c r="E206" s="66" t="s">
+        <v>815</v>
+      </c>
+      <c r="F206"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B207" s="65" t="s">
+        <v>816</v>
+      </c>
+      <c r="C207" t="s">
+        <v>817</v>
+      </c>
+      <c r="D207" t="s">
+        <v>818</v>
+      </c>
+      <c r="E207" s="66" t="s">
+        <v>819</v>
+      </c>
+      <c r="F207"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B208"/>
+      <c r="C208" t="s">
+        <v>820</v>
+      </c>
+      <c r="D208" t="s">
+        <v>821</v>
+      </c>
+      <c r="E208" s="66" t="s">
+        <v>822</v>
+      </c>
+      <c r="F208"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B209" s="65" t="s">
+        <v>823</v>
+      </c>
+      <c r="C209" t="s">
+        <v>824</v>
+      </c>
+      <c r="D209" t="s">
+        <v>825</v>
+      </c>
+      <c r="E209" s="66" t="s">
+        <v>826</v>
+      </c>
+      <c r="F209"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B210" s="65" t="s">
+        <v>827</v>
+      </c>
+      <c r="C210" t="s">
+        <v>828</v>
+      </c>
+      <c r="D210" t="s">
+        <v>829</v>
+      </c>
+      <c r="E210" s="66" t="s">
+        <v>830</v>
+      </c>
+      <c r="F210"/>
+    </row>
+    <row r="213" spans="1:6" ht="32" x14ac:dyDescent="0.4">
+      <c r="A213" s="70" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" s="65" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" s="65" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" s="64" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" s="65" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" s="65" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" s="65" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" s="64" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" s="65" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" s="65" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" s="65" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" s="65" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" s="65" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" s="65" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" s="64" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" s="65" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" s="65" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" s="65" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="65" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" s="65" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" s="65" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" s="64" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" s="65" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" s="65" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" s="65" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" s="65" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" s="65" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" s="64" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" s="65" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" s="65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" s="65" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" s="65" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" s="67" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" s="64" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" s="65" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" s="65" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>886</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E181" r:id="rId1" display="https://www.mdpi.com/2306-5354/9/11/688" xr:uid="{D4A00231-C1FB-514A-AE3D-ADB8D461C9A3}"/>
+    <hyperlink ref="E182" r:id="rId2" display="http://www.etc.tuiasi.ro:81/cin/Courses/Epiom/Literarature/Kimetal.pdf" xr:uid="{F52632AF-E44E-884A-80D9-1A485044BFF9}"/>
+    <hyperlink ref="E183" r:id="rId3" display="https://www.mdpi.com/1424-8220/18/7/2074/pdf" xr:uid="{771DB773-7EEE-904D-9EB7-2EC9BFEAF41B}"/>
+    <hyperlink ref="E184" r:id="rId4" display="https://www.academia.edu/download/80425159/Swangnetr_Kaber_IEEE_HMS_13.pdf" xr:uid="{630FEB5B-E0E1-A74A-B658-67472660B1B7}"/>
+    <hyperlink ref="E185" r:id="rId5" display="https://link.springer.com/article/10.1007/s10916-018-1020-8" xr:uid="{1380140C-7385-C545-B3C2-B1CB6E378FB8}"/>
+    <hyperlink ref="E186" r:id="rId6" display="https://ieeexplore.ieee.org/abstract/document/6825835" xr:uid="{CABBB525-0DB8-C74C-9FD9-CBA38D94D86A}"/>
+    <hyperlink ref="E187" r:id="rId7" display="https://ieeexplore.ieee.org/iel7/6287639/8600701/08849996.pdf" xr:uid="{651E68B8-CF0E-724E-9622-768196958B0A}"/>
+    <hyperlink ref="E203" r:id="rId8" display="https://www.researchgate.net/publication/228630627" xr:uid="{FB6C3FC6-74B3-4840-819A-1D4FF9EDE398}"/>
+    <hyperlink ref="E204" r:id="rId9" display="https://www.researchgate.net/publication/300176856" xr:uid="{51DD7EEA-7277-F948-B68F-592D8104ABC7}"/>
+    <hyperlink ref="E205" r:id="rId10" display="https://access.archive-ouverte.unige.ch/download/bae6c011-1e1b-4009-9b50-9d009cb8d6d5" xr:uid="{DB934D38-3308-434D-A4D7-418C7A1B24B7}"/>
+    <hyperlink ref="E206" r:id="rId11" display="https://open.metu.edu.tr/bitstream/handle/11511/26175/index.pdf" xr:uid="{F0F0B64F-78B7-144A-97A4-4B4DBB07977F}"/>
+    <hyperlink ref="E207" r:id="rId12" display="https://link.springer.com/content/pdf/10.1007/s10462-025-11126-9.pdf" xr:uid="{9CC0EA1B-93F2-9049-AC79-10C5109CFA0A}"/>
+    <hyperlink ref="E208" r:id="rId13" display="https://onlinelibrary.wiley.com/doi/pdfdirect/10.1155/2024/6091523" xr:uid="{B5D8BF1B-FA8A-4543-AAD5-1F6B7E928060}"/>
+    <hyperlink ref="E209" r:id="rId14" display="https://bia.unibz.it/view/pdfCoverPage?filePid=13326132230001241" xr:uid="{7D22C21B-B3AA-8344-B9FC-DCE4373B77B8}"/>
+    <hyperlink ref="E210" r:id="rId15" display="https://www.mdpi.com/1424-8220/18/7/2074/pdf" xr:uid="{B827695E-0C9D-504D-A54A-BFA194DB880A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8E6460-AAD9-9E48-A2BC-384E4EB8E385}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" style="101" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="101" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" style="101" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="101" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" style="101" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="101" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="101" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="101"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="103" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="103" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+    </row>
+    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="103"/>
+      <c r="B3" s="103" t="s">
+        <v>721</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E3" s="103" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+    </row>
+    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="103"/>
+      <c r="B4" s="103" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+    </row>
+    <row r="5" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="101" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="138" x14ac:dyDescent="0.2">
+      <c r="B6" s="101" t="s">
+        <v>721</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E6" s="102"/>
+    </row>
+    <row r="7" spans="1:7" ht="115" x14ac:dyDescent="0.2">
+      <c r="B7" s="101" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="114" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="114"/>
+      <c r="B9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="114"/>
+      <c r="B10" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="104"/>
+    </row>
+    <row r="13" spans="1:7" ht="46" x14ac:dyDescent="0.2">
+      <c r="A13" s="101" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="46" x14ac:dyDescent="0.2">
+      <c r="A18" s="101" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="69" x14ac:dyDescent="0.2">
+      <c r="A25" s="101" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="103" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="105" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="105" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="105" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="105" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="105" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EF847C-2E5F-9B44-A347-3A85CAFDB180}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="G17" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12971,12 +15483,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C14749-C922-2D40-94E3-44B86055A6C2}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="113" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.83203125" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13170,10 +15681,549 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97DE022-34D0-C74F-8523-D19ED4CB78FB}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="45.83203125" defaultRowHeight="158" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.1640625" style="106" customWidth="1"/>
+    <col min="2" max="16384" width="45.83203125" style="106"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="109" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="108" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G1" s="108" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="110" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="111"/>
+      <c r="B3" s="107" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G3" s="107" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="111"/>
+      <c r="B4" s="115" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I4" s="107" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J4" s="107" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K4" s="107" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="111"/>
+      <c r="B5" s="115" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="112"/>
+      <c r="B6" s="107" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="113" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D7" s="107" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E7" s="107" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F7" s="107" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="113"/>
+      <c r="B8" s="107" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G8" s="107" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="113"/>
+      <c r="B9" s="107" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G9" s="107" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="113"/>
+      <c r="B10" s="107" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="113"/>
+      <c r="B11" s="107" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F11" s="107" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="113" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D12" s="107" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E12" s="107" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F12" s="107" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G12" s="107" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113"/>
+      <c r="B13" s="107" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F13" s="107" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="113"/>
+      <c r="B14" s="107" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G14" s="107" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="113"/>
+      <c r="B15" s="107" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="113" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B16" s="107" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F16" s="107" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G16" s="107" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="113"/>
+      <c r="B17" s="107" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G17" s="107" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="113"/>
+      <c r="B18" s="107" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E18" s="107" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F18" s="107" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G18" s="107" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="113"/>
+      <c r="B19" s="107" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E19" s="107" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F19" s="107" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G19" s="107" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="113" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G20" s="107" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="113"/>
+      <c r="B21" s="107" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E21" s="107" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G21" s="107" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="113"/>
+      <c r="B22" s="107" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C22" s="107" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D22" s="107" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E22" s="107" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F22" s="107" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G22" s="107" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="113"/>
+      <c r="B23" s="107" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C23" s="107" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D23" s="107" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E23" s="107" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F23" s="107" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G23" s="107" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="113"/>
+      <c r="B24" s="107" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C24" s="107" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E24" s="107" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F24" s="107" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G24" s="107" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744565CC-A1D1-1D48-BAC6-7C197A79D58D}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13689,14 +16739,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12881B95-6F10-A84E-8909-825AE88EDF33}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="93" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14581,15 +17630,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281FD899-5C93-6646-A8E0-5C5B19B8CA95}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15035,7 +18081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE62D70-BBCD-F541-815A-8E23DC1F559B}">
   <dimension ref="A1:E245"/>
   <sheetViews>
@@ -15542,7 +18588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABFADAA-8CD8-B54B-B724-E72D604D12F5}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -16149,1622 +19195,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AECCAE-BEC9-B74B-B80E-6BEF6A128913}">
-  <sheetPr codeName="Sheet6">
-    <tabColor theme="0" tint="-0.14999847407452621"/>
-  </sheetPr>
-  <dimension ref="A1:F332"/>
-  <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="150" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B122"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B124"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B125"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B126" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B127"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B128" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B129"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B130" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B131"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B132"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B133"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B134"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B135" s="21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B136" s="22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B137"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B138" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B139"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B140"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B141"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B142"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B143" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B144"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B145" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B148"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B149" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B150"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B151" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B152"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B153"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B154" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B155"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B156" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B157" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B158" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B159" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B160" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" s="14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B163" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B164" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B165" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B166" s="14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B167" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B168" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B169" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B170" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B171" s="14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B172" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B173" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B174" s="14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B175" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B176" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B177" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B180" s="65" t="s">
-        <v>683</v>
-      </c>
-      <c r="C180" s="65" t="s">
-        <v>684</v>
-      </c>
-      <c r="D180" s="65" t="s">
-        <v>733</v>
-      </c>
-      <c r="E180" s="65" t="s">
-        <v>493</v>
-      </c>
-      <c r="F180"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181" s="65" t="s">
-        <v>781</v>
-      </c>
-      <c r="D181" t="s">
-        <v>782</v>
-      </c>
-      <c r="E181" s="66" t="s">
-        <v>687</v>
-      </c>
-      <c r="F181"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B182">
-        <v>2</v>
-      </c>
-      <c r="C182" s="65" t="s">
-        <v>783</v>
-      </c>
-      <c r="D182" t="s">
-        <v>784</v>
-      </c>
-      <c r="E182" s="66" t="s">
-        <v>687</v>
-      </c>
-      <c r="F182"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B183">
-        <v>3</v>
-      </c>
-      <c r="C183" s="65" t="s">
-        <v>785</v>
-      </c>
-      <c r="D183" t="s">
-        <v>786</v>
-      </c>
-      <c r="E183" s="66" t="s">
-        <v>687</v>
-      </c>
-      <c r="F183"/>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B184">
-        <v>4</v>
-      </c>
-      <c r="C184" s="65" t="s">
-        <v>787</v>
-      </c>
-      <c r="D184" t="s">
-        <v>788</v>
-      </c>
-      <c r="E184" s="66" t="s">
-        <v>687</v>
-      </c>
-      <c r="F184"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B185">
-        <v>5</v>
-      </c>
-      <c r="C185" s="65" t="s">
-        <v>789</v>
-      </c>
-      <c r="D185" t="s">
-        <v>790</v>
-      </c>
-      <c r="E185" s="66" t="s">
-        <v>493</v>
-      </c>
-      <c r="F185"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B186">
-        <v>6</v>
-      </c>
-      <c r="C186" s="65" t="s">
-        <v>791</v>
-      </c>
-      <c r="D186" t="s">
-        <v>792</v>
-      </c>
-      <c r="E186" s="66" t="s">
-        <v>687</v>
-      </c>
-      <c r="F186"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B187">
-        <v>7</v>
-      </c>
-      <c r="C187" s="65" t="s">
-        <v>793</v>
-      </c>
-      <c r="D187" t="s">
-        <v>794</v>
-      </c>
-      <c r="E187" s="66" t="s">
-        <v>687</v>
-      </c>
-      <c r="F187"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B188"/>
-      <c r="C188"/>
-      <c r="D188"/>
-      <c r="E188"/>
-      <c r="F188"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B189"/>
-      <c r="C189"/>
-      <c r="D189"/>
-      <c r="E189"/>
-      <c r="F189"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B190"/>
-      <c r="C190"/>
-      <c r="D190"/>
-      <c r="E190"/>
-      <c r="F190"/>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B191" t="s">
-        <v>795</v>
-      </c>
-      <c r="C191"/>
-      <c r="D191"/>
-      <c r="E191"/>
-      <c r="F191"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B192"/>
-      <c r="C192"/>
-      <c r="D192"/>
-      <c r="E192"/>
-      <c r="F192"/>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B193"/>
-      <c r="C193"/>
-      <c r="D193"/>
-      <c r="E193"/>
-      <c r="F193"/>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B194"/>
-      <c r="C194"/>
-      <c r="D194"/>
-      <c r="E194"/>
-      <c r="F194"/>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B195" s="64" t="s">
-        <v>796</v>
-      </c>
-      <c r="C195"/>
-      <c r="D195"/>
-      <c r="E195"/>
-      <c r="F195"/>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B196"/>
-      <c r="C196"/>
-      <c r="D196"/>
-      <c r="E196"/>
-      <c r="F196"/>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B197" s="64" t="s">
-        <v>797</v>
-      </c>
-      <c r="C197"/>
-      <c r="D197"/>
-      <c r="E197"/>
-      <c r="F197"/>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B198"/>
-      <c r="C198"/>
-      <c r="D198"/>
-      <c r="E198"/>
-      <c r="F198"/>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B199"/>
-      <c r="C199"/>
-      <c r="D199"/>
-      <c r="E199"/>
-      <c r="F199"/>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B200" t="s">
-        <v>798</v>
-      </c>
-      <c r="C200"/>
-      <c r="D200"/>
-      <c r="E200"/>
-      <c r="F200"/>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B201"/>
-      <c r="C201"/>
-      <c r="D201"/>
-      <c r="E201"/>
-      <c r="F201"/>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B202" s="65" t="s">
-        <v>799</v>
-      </c>
-      <c r="C202" s="65" t="s">
-        <v>800</v>
-      </c>
-      <c r="D202" s="65" t="s">
-        <v>801</v>
-      </c>
-      <c r="E202" s="65" t="s">
-        <v>493</v>
-      </c>
-      <c r="F202"/>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B203" s="65" t="s">
-        <v>802</v>
-      </c>
-      <c r="C203" t="s">
-        <v>803</v>
-      </c>
-      <c r="D203" t="s">
-        <v>804</v>
-      </c>
-      <c r="E203" s="66" t="s">
-        <v>805</v>
-      </c>
-      <c r="F203"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B204"/>
-      <c r="C204" t="s">
-        <v>806</v>
-      </c>
-      <c r="D204" t="s">
-        <v>807</v>
-      </c>
-      <c r="E204" s="66" t="s">
-        <v>808</v>
-      </c>
-      <c r="F204"/>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B205" s="65" t="s">
-        <v>809</v>
-      </c>
-      <c r="C205" t="s">
-        <v>810</v>
-      </c>
-      <c r="D205" t="s">
-        <v>811</v>
-      </c>
-      <c r="E205" s="66" t="s">
-        <v>812</v>
-      </c>
-      <c r="F205"/>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B206"/>
-      <c r="C206" t="s">
-        <v>813</v>
-      </c>
-      <c r="D206" t="s">
-        <v>814</v>
-      </c>
-      <c r="E206" s="66" t="s">
-        <v>815</v>
-      </c>
-      <c r="F206"/>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B207" s="65" t="s">
-        <v>816</v>
-      </c>
-      <c r="C207" t="s">
-        <v>817</v>
-      </c>
-      <c r="D207" t="s">
-        <v>818</v>
-      </c>
-      <c r="E207" s="66" t="s">
-        <v>819</v>
-      </c>
-      <c r="F207"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B208"/>
-      <c r="C208" t="s">
-        <v>820</v>
-      </c>
-      <c r="D208" t="s">
-        <v>821</v>
-      </c>
-      <c r="E208" s="66" t="s">
-        <v>822</v>
-      </c>
-      <c r="F208"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B209" s="65" t="s">
-        <v>823</v>
-      </c>
-      <c r="C209" t="s">
-        <v>824</v>
-      </c>
-      <c r="D209" t="s">
-        <v>825</v>
-      </c>
-      <c r="E209" s="66" t="s">
-        <v>826</v>
-      </c>
-      <c r="F209"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B210" s="65" t="s">
-        <v>827</v>
-      </c>
-      <c r="C210" t="s">
-        <v>828</v>
-      </c>
-      <c r="D210" t="s">
-        <v>829</v>
-      </c>
-      <c r="E210" s="66" t="s">
-        <v>830</v>
-      </c>
-      <c r="F210"/>
-    </row>
-    <row r="213" spans="1:6" ht="32" x14ac:dyDescent="0.4">
-      <c r="A213" s="70" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A217"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="65" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" s="65" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A221"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A223" s="64" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A224"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="65" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="65" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="65" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="64" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="65" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="65" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="65" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" s="65" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" s="65" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" s="65" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" s="64" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" s="65" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" s="65" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" s="65" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" s="65" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" s="65" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" s="65" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" s="64" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" s="65" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" s="65" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" s="65" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279" s="65" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" s="65" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282"/>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284" s="64" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300" s="65" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A302" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A309"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A310" s="65" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A311"/>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A312" s="65" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A318" s="67" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A319"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A320" s="64" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A321"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A322"/>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A324"/>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A325"/>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A326" s="65" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A327"/>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A328"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A329" s="65" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A330"/>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A331"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>886</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E181" r:id="rId1" display="https://www.mdpi.com/2306-5354/9/11/688" xr:uid="{D4A00231-C1FB-514A-AE3D-ADB8D461C9A3}"/>
-    <hyperlink ref="E182" r:id="rId2" display="http://www.etc.tuiasi.ro:81/cin/Courses/Epiom/Literarature/Kimetal.pdf" xr:uid="{F52632AF-E44E-884A-80D9-1A485044BFF9}"/>
-    <hyperlink ref="E183" r:id="rId3" display="https://www.mdpi.com/1424-8220/18/7/2074/pdf" xr:uid="{771DB773-7EEE-904D-9EB7-2EC9BFEAF41B}"/>
-    <hyperlink ref="E184" r:id="rId4" display="https://www.academia.edu/download/80425159/Swangnetr_Kaber_IEEE_HMS_13.pdf" xr:uid="{630FEB5B-E0E1-A74A-B658-67472660B1B7}"/>
-    <hyperlink ref="E185" r:id="rId5" display="https://link.springer.com/article/10.1007/s10916-018-1020-8" xr:uid="{1380140C-7385-C545-B3C2-B1CB6E378FB8}"/>
-    <hyperlink ref="E186" r:id="rId6" display="https://ieeexplore.ieee.org/abstract/document/6825835" xr:uid="{CABBB525-0DB8-C74C-9FD9-CBA38D94D86A}"/>
-    <hyperlink ref="E187" r:id="rId7" display="https://ieeexplore.ieee.org/iel7/6287639/8600701/08849996.pdf" xr:uid="{651E68B8-CF0E-724E-9622-768196958B0A}"/>
-    <hyperlink ref="E203" r:id="rId8" display="https://www.researchgate.net/publication/228630627" xr:uid="{FB6C3FC6-74B3-4840-819A-1D4FF9EDE398}"/>
-    <hyperlink ref="E204" r:id="rId9" display="https://www.researchgate.net/publication/300176856" xr:uid="{51DD7EEA-7277-F948-B68F-592D8104ABC7}"/>
-    <hyperlink ref="E205" r:id="rId10" display="https://access.archive-ouverte.unige.ch/download/bae6c011-1e1b-4009-9b50-9d009cb8d6d5" xr:uid="{DB934D38-3308-434D-A4D7-418C7A1B24B7}"/>
-    <hyperlink ref="E206" r:id="rId11" display="https://open.metu.edu.tr/bitstream/handle/11511/26175/index.pdf" xr:uid="{F0F0B64F-78B7-144A-97A4-4B4DBB07977F}"/>
-    <hyperlink ref="E207" r:id="rId12" display="https://link.springer.com/content/pdf/10.1007/s10462-025-11126-9.pdf" xr:uid="{9CC0EA1B-93F2-9049-AC79-10C5109CFA0A}"/>
-    <hyperlink ref="E208" r:id="rId13" display="https://onlinelibrary.wiley.com/doi/pdfdirect/10.1155/2024/6091523" xr:uid="{B5D8BF1B-FA8A-4543-AAD5-1F6B7E928060}"/>
-    <hyperlink ref="E209" r:id="rId14" display="https://bia.unibz.it/view/pdfCoverPage?filePid=13326132230001241" xr:uid="{7D22C21B-B3AA-8344-B9FC-DCE4373B77B8}"/>
-    <hyperlink ref="E210" r:id="rId15" display="https://www.mdpi.com/1424-8220/18/7/2074/pdf" xr:uid="{B827695E-0C9D-504D-A54A-BFA194DB880A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>